--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chef\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="4240" activeTab="2"/>
   </bookViews>
@@ -13,12 +18,11 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -246,6 +250,15 @@
   <si>
     <t>Remaining Ressources</t>
   </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Add Logging functionality</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,6 +282,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -305,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -333,6 +352,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14851,7 +14871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15068,10 +15090,10 @@
         <v>31</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
+      <c r="L5" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15105,9 +15127,7 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
@@ -15144,10 +15164,10 @@
         <v>31</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>32</v>
+      <c r="L7" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15189,18 +15209,40 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -14872,7 +14872,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15014,7 +15014,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>32</v>
@@ -15052,7 +15052,7 @@
         <v>31</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>32</v>
@@ -15127,7 +15127,9 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>7</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
@@ -15202,7 +15204,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>32</v>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -259,6 +259,69 @@
   <si>
     <t>done</t>
   </si>
+  <si>
+    <t>Database Connection</t>
+  </si>
+  <si>
+    <t>Daily Exercise</t>
+  </si>
+  <si>
+    <t>Latest Diary Entry</t>
+  </si>
+  <si>
+    <t>State Pattern Implementation</t>
+  </si>
+  <si>
+    <t>Contacts functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacts can be deleted, added and edited. </t>
+  </si>
+  <si>
+    <t>Registration View</t>
+  </si>
+  <si>
+    <t>Generate Diary entry on exercise completed, split Excercises into daily and calm-down exercises.</t>
+  </si>
+  <si>
+    <t>Implement login functionality and basic security, store session.</t>
+  </si>
+  <si>
+    <t>MainView</t>
+  </si>
+  <si>
+    <t>Design the registration View</t>
+  </si>
+  <si>
+    <t>Create Database and connect using JDBC / Hibernate.</t>
+  </si>
+  <si>
+    <t>Create ER Diagramm</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Funktionalität implementieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icons / Design </t>
+  </si>
+  <si>
+    <t>Improve functionality / add model</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Add daily Exercise to mainview</t>
+  </si>
+  <si>
+    <t>Add latest diary entry to main view</t>
+  </si>
+  <si>
+    <t>Implement state pattern to main View</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -353,6 +416,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4707,7 +4771,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14869,18 +14933,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
     <col min="2" max="2" width="6.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.453125" customWidth="1"/>
@@ -14978,8 +15042,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
+      <c r="L2" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15016,8 +15080,8 @@
       <c r="K3" s="4">
         <v>7</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
+      <c r="L3" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15054,8 +15118,8 @@
       <c r="K4" s="4">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>32</v>
+      <c r="L4" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15130,8 +15194,8 @@
       <c r="K6" s="4">
         <v>7</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>32</v>
+      <c r="L6" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15206,8 +15270,8 @@
       <c r="K8" s="4">
         <v>7</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>32</v>
+      <c r="L8" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15260,173 +15324,323 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>4</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>14</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>14</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>91</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
@@ -29120,6 +29334,20 @@
       <c r="K1000" s="3"/>
       <c r="L1000" s="3"/>
     </row>
+    <row r="1001" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29129,12 +29357,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="26" width="7.6328125" customWidth="1"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chef\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eclipse\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Improve functionality / add model</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>Add daily Exercise to mainview</t>
   </si>
   <si>
@@ -321,6 +318,48 @@
   </si>
   <si>
     <t>Implement state pattern to main View</t>
+  </si>
+  <si>
+    <t>in progress (delete not done)</t>
+  </si>
+  <si>
+    <t>Claudio / Patrick</t>
+  </si>
+  <si>
+    <t>in progress (warten auf DB)</t>
+  </si>
+  <si>
+    <t>in progress (Generate Dairy Entrys not done)</t>
+  </si>
+  <si>
+    <t>Review all code and refactor if needed</t>
+  </si>
+  <si>
+    <t>Write unit tests for the most important methods</t>
+  </si>
+  <si>
+    <t>Delete contacts</t>
+  </si>
+  <si>
+    <t>Refactor code</t>
+  </si>
+  <si>
+    <t>Unit tests</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Generate Diary entry on exercise completed</t>
+  </si>
+  <si>
+    <t>Refactor Code View, Presenter, Model. Add validation</t>
+  </si>
+  <si>
+    <t>Logout Button</t>
+  </si>
+  <si>
+    <t>Add Logout Button to Top view</t>
   </si>
 </sst>
 </file>
@@ -14935,8 +14974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15344,10 +15383,14 @@
       <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
       <c r="L11" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15370,10 +15413,14 @@
       <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15385,7 +15432,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>85</v>
@@ -15398,10 +15445,14 @@
       <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15413,7 +15464,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>85</v>
@@ -15426,10 +15477,14 @@
       <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15441,7 +15496,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="14" t="s">
@@ -15452,10 +15507,14 @@
       <c r="I15" s="3">
         <v>8</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="3">
+        <v>8</v>
+      </c>
       <c r="L15" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15480,10 +15539,14 @@
       <c r="I16" s="3">
         <v>14</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="3">
+        <v>14</v>
+      </c>
       <c r="L16" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15506,10 +15569,14 @@
       <c r="I17" s="3">
         <v>14</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="3">
+        <v>14</v>
+      </c>
       <c r="L17" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15525,17 +15592,21 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="14" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>10</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="3">
+        <v>11</v>
+      </c>
       <c r="L18" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15558,10 +15629,14 @@
       <c r="I19" s="3">
         <v>4</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4</v>
+      </c>
       <c r="L19" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15584,10 +15659,14 @@
       <c r="I20" s="3">
         <v>4</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
       <c r="L20" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15610,10 +15689,14 @@
       <c r="I21" s="3">
         <v>4</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15636,10 +15719,14 @@
       <c r="I22" s="3">
         <v>10</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15658,11 +15745,19 @@
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -15672,11 +15767,19 @@
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15686,11 +15789,19 @@
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -15700,11 +15811,19 @@
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -15714,28 +15833,48 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>6</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>3</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eclipse\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chef\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -332,34 +332,67 @@
     <t>in progress (Generate Dairy Entrys not done)</t>
   </si>
   <si>
-    <t>Review all code and refactor if needed</t>
-  </si>
-  <si>
-    <t>Write unit tests for the most important methods</t>
-  </si>
-  <si>
-    <t>Delete contacts</t>
-  </si>
-  <si>
-    <t>Refactor code</t>
-  </si>
-  <si>
-    <t>Unit tests</t>
-  </si>
-  <si>
     <t>Exercises</t>
   </si>
   <si>
     <t>Generate Diary entry on exercise completed</t>
   </si>
   <si>
-    <t>Refactor Code View, Presenter, Model. Add validation</t>
-  </si>
-  <si>
     <t>Logout Button</t>
   </si>
   <si>
     <t>Add Logout Button to Top view</t>
+  </si>
+  <si>
+    <t>Refactor Code View, Presenter, Model. Add validation, unit tests</t>
+  </si>
+  <si>
+    <t>Refactor Code View, Presenter, Model. Add unit tests, logging, comments, textfield validation</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor Code, View, Presenter. Add Textfield Validation, unit tests, logging. </t>
+  </si>
+  <si>
+    <t>Add delete function</t>
+  </si>
+  <si>
+    <t>Review code</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Fix package remove UI</t>
+  </si>
+  <si>
+    <t>Main View</t>
+  </si>
+  <si>
+    <t>Review all code, help with fixes &amp; tests</t>
+  </si>
+  <si>
+    <t>Joel / Patrick</t>
+  </si>
+  <si>
+    <t>Refactor Code, Connect with DB, Add unit tests</t>
+  </si>
+  <si>
+    <t>Delete multiselect function</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Refactor Code View, Presenter, Mode. Add unit tests, logging, comments.</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>3.10</t>
   </si>
 </sst>
 </file>
@@ -426,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -456,6 +489,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14974,18 +15010,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="6.08984375" customWidth="1"/>
     <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.453125" customWidth="1"/>
     <col min="8" max="8" width="7.26953125" customWidth="1"/>
     <col min="9" max="9" width="8.08984375" customWidth="1"/>
@@ -15364,7 +15400,9 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>2.1</v>
+      </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -15378,8 +15416,12 @@
       <c r="F11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3">
         <v>4</v>
       </c>
@@ -15394,7 +15436,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -15408,8 +15452,12 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="3">
         <v>10</v>
       </c>
@@ -15424,7 +15472,9 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -15440,8 +15490,12 @@
       <c r="F13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="3">
         <v>3</v>
       </c>
@@ -15456,7 +15510,9 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>2.4</v>
+      </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
@@ -15472,8 +15528,12 @@
       <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="3">
         <v>3</v>
       </c>
@@ -15488,7 +15548,9 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>2.5</v>
+      </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -15502,8 +15564,12 @@
       <c r="F15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="3">
         <v>8</v>
       </c>
@@ -15518,7 +15584,9 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3">
+        <v>2.6</v>
+      </c>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -15534,8 +15602,12 @@
       <c r="F16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="3">
         <v>14</v>
       </c>
@@ -15550,7 +15622,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3">
+        <v>2.7</v>
+      </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -15564,8 +15638,12 @@
       <c r="F17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I17" s="3">
         <v>14</v>
       </c>
@@ -15580,7 +15658,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>2.8</v>
+      </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -15594,8 +15674,12 @@
       <c r="F18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I18" s="3">
         <v>10</v>
       </c>
@@ -15610,7 +15694,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>2.9</v>
+      </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -15624,8 +15710,12 @@
       <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="3">
         <v>4</v>
       </c>
@@ -15640,7 +15730,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
@@ -15654,8 +15746,12 @@
       <c r="F20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="3">
         <v>4</v>
       </c>
@@ -15670,7 +15766,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>2.11</v>
+      </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
@@ -15684,8 +15782,12 @@
       <c r="F21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I21" s="3">
         <v>4</v>
       </c>
@@ -15700,7 +15802,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>2.12</v>
+      </c>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -15714,8 +15818,12 @@
       <c r="F22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="3">
         <v>10</v>
       </c>
@@ -15743,225 +15851,389 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>3.1</v>
+      </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>100</v>
+      <c r="C24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>3.2</v>
+      </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>101</v>
+      <c r="C25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>3.3</v>
+      </c>
       <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>102</v>
+      <c r="D26" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>3.4</v>
+      </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>3.5</v>
+      </c>
       <c r="B28" s="3">
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>107</v>
+      <c r="D28" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I28" s="3">
         <v>6</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>3.6</v>
+      </c>
       <c r="B29" s="3">
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I29" s="3">
         <v>3</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="3">
+        <v>9</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="F32" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="3">
+        <v>3.11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="F34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="F35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>waiting</t>
   </si>
   <si>
     <t>Settings</t>
@@ -459,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -491,6 +488,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,7 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4846,7 +4848,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4911,10 +4913,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>30</v>
@@ -4922,10 +4924,14 @@
       <c r="E2" s="8">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8" t="s">
-        <v>32</v>
+      <c r="F2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4951,21 +4957,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="4">
         <v>30</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4976,18 +4986,20 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>30</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="8" t="s">
-        <v>32</v>
+      <c r="H4" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4995,10 +5007,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>30</v>
@@ -5006,10 +5018,12 @@
       <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="8" t="s">
-        <v>32</v>
+      <c r="H5" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5017,10 +5031,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -5028,10 +5042,12 @@
       <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="8" t="s">
-        <v>32</v>
+      <c r="H6" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5039,21 +5055,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
+      <c r="H7" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5061,21 +5079,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="8" t="s">
-        <v>32</v>
+      <c r="H8" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5083,145 +5103,183 @@
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <f>SUM(E2:E8)</f>
+        <v>180</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f>SUM(E2:E8)</f>
-        <v>180</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5231,7 +5289,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5241,7 +5299,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5251,7 +5309,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5261,7 +5319,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5271,7 +5329,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5281,7 +5339,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5291,7 +5349,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5301,7 +5359,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5311,7 +5369,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -15010,8 +15068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15115,10 +15173,10 @@
         <v>31</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -15129,22 +15187,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4">
         <v>7</v>
@@ -15156,7 +15214,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15167,22 +15225,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4">
         <v>7</v>
@@ -15194,7 +15252,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15205,22 +15263,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -15232,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15243,22 +15301,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>7</v>
@@ -15270,7 +15328,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15281,19 +15339,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>30</v>
@@ -15308,7 +15366,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15319,22 +15377,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4">
         <v>7</v>
@@ -15346,7 +15404,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15357,20 +15415,20 @@
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -15382,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15407,20 +15465,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3">
         <v>4</v>
@@ -15432,7 +15490,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15443,20 +15501,20 @@
         <v>2</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3">
         <v>10</v>
@@ -15468,7 +15526,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15479,19 +15537,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>30</v>
@@ -15506,7 +15564,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15517,19 +15575,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>30</v>
@@ -15544,7 +15602,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15555,20 +15613,20 @@
         <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3">
         <v>8</v>
@@ -15580,7 +15638,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15591,22 +15649,22 @@
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3">
         <v>14</v>
@@ -15618,7 +15676,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15632,17 +15690,17 @@
         <v>24</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="3">
         <v>14</v>
@@ -15654,7 +15712,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15665,20 +15723,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="3">
         <v>10</v>
@@ -15690,7 +15748,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15701,17 +15759,17 @@
         <v>2</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>30</v>
@@ -15726,28 +15784,28 @@
         <v>4</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>30</v>
@@ -15762,7 +15820,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15773,17 +15831,17 @@
         <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>30</v>
@@ -15798,7 +15856,7 @@
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15809,20 +15867,20 @@
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="3">
         <v>10</v>
@@ -15834,7 +15892,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15859,28 +15917,32 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>117</v>
+      <c r="J24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15891,28 +15953,30 @@
         <v>3</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="3">
         <v>5</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15923,28 +15987,30 @@
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="3">
         <v>5</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15955,17 +16021,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>30</v>
@@ -15973,10 +16039,12 @@
       <c r="I27" s="3">
         <v>2</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -15987,28 +16055,30 @@
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="3">
         <v>6</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16019,14 +16089,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>29</v>
@@ -16037,10 +16107,12 @@
       <c r="I29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16051,28 +16123,30 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="3">
         <v>9</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16086,25 +16160,27 @@
         <v>24</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="3">
         <v>7</v>
       </c>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16118,14 +16194,14 @@
         <v>24</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>30</v>
@@ -16133,31 +16209,33 @@
       <c r="I32" s="3">
         <v>2</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>110</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>30</v>
@@ -16165,10 +16243,12 @@
       <c r="I33" s="3">
         <v>2</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16179,17 +16259,17 @@
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>30</v>
@@ -16197,10 +16277,14 @@
       <c r="I34" s="3">
         <v>4</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
-        <v>117</v>
+      <c r="J34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="3">
+        <v>6</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -16211,28 +16295,30 @@
         <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="3">
         <v>4</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -29783,16 +29869,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chef\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11500" windowHeight="4240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="6270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -395,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
@@ -494,7 +490,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,15 +774,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="26" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -818,7 +814,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -826,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -834,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -842,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -850,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -858,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -866,27 +862,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
@@ -4851,20 +4847,20 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="26" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4908,7 +4904,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4952,7 +4948,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4978,7 +4974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5026,7 +5022,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5050,7 +5046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -5111,7 +5107,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -15068,28 +15064,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="8.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" customWidth="1"/>
-    <col min="13" max="26" width="7.6328125" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15141,7 +15137,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -15179,7 +15175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.2</v>
       </c>
@@ -15217,7 +15213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.3</v>
       </c>
@@ -15255,7 +15251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1.4</v>
       </c>
@@ -15293,7 +15289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.5</v>
       </c>
@@ -15331,7 +15327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1.6</v>
       </c>
@@ -15369,7 +15365,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>42917</v>
       </c>
@@ -15407,7 +15403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.8</v>
       </c>
@@ -15443,7 +15439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -15457,7 +15453,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2.1</v>
       </c>
@@ -15493,7 +15489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -15529,7 +15525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2.4</v>
       </c>
@@ -15605,7 +15601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2.5</v>
       </c>
@@ -15641,7 +15637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2.6</v>
       </c>
@@ -15679,7 +15675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2.7</v>
       </c>
@@ -15715,7 +15711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2.8</v>
       </c>
@@ -15751,7 +15747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2.9</v>
       </c>
@@ -15787,7 +15783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>118</v>
       </c>
@@ -15823,7 +15819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2.11</v>
       </c>
@@ -15859,7 +15855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2.12</v>
       </c>
@@ -15895,7 +15891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -15909,7 +15905,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>3.1</v>
       </c>
@@ -15945,7 +15941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3.2</v>
       </c>
@@ -15979,7 +15975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3.3</v>
       </c>
@@ -16013,7 +16009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>3.4</v>
       </c>
@@ -16047,7 +16043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>3.5</v>
       </c>
@@ -16081,7 +16077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>3.6</v>
       </c>
@@ -16115,7 +16111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>3.7</v>
       </c>
@@ -16149,7 +16145,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>3.8</v>
       </c>
@@ -16178,12 +16174,14 @@
       <c r="J31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3">
+        <v>5</v>
+      </c>
       <c r="L31" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>3.9</v>
       </c>
@@ -16212,12 +16210,14 @@
       <c r="J32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3">
+        <v>4</v>
+      </c>
       <c r="L32" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>119</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>3.11</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>3.12</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -16335,7 +16335,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -16349,7 +16349,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -16363,7 +16363,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -16377,7 +16377,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -16391,7 +16391,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -16405,7 +16405,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -16419,7 +16419,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -16433,7 +16433,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -16447,7 +16447,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -16461,7 +16461,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -16475,7 +16475,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -16489,7 +16489,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -16503,7 +16503,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -16517,7 +16517,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -16531,7 +16531,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -16545,7 +16545,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -16559,7 +16559,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -16573,7 +16573,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -16587,7 +16587,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -16601,7 +16601,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -16615,7 +16615,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -16629,7 +16629,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -16643,7 +16643,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -16657,7 +16657,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -16671,7 +16671,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -16685,7 +16685,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -16699,7 +16699,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -16713,7 +16713,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -16727,7 +16727,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -16741,7 +16741,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -16755,7 +16755,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -16769,7 +16769,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -16783,7 +16783,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -16797,7 +16797,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -16811,7 +16811,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -16825,7 +16825,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -16839,7 +16839,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -16853,7 +16853,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -16867,7 +16867,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -16881,7 +16881,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -16895,7 +16895,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -16909,7 +16909,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -16923,7 +16923,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -16937,7 +16937,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -16951,7 +16951,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -16965,7 +16965,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -16979,7 +16979,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -16993,7 +16993,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -17007,7 +17007,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -17021,7 +17021,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -17035,7 +17035,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -17049,7 +17049,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -17063,7 +17063,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -17077,7 +17077,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -17091,7 +17091,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -17105,7 +17105,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -17119,7 +17119,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -17133,7 +17133,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -17147,7 +17147,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -17161,7 +17161,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -17175,7 +17175,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -17189,7 +17189,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -17203,7 +17203,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -17217,7 +17217,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -17231,7 +17231,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -17245,7 +17245,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -17259,7 +17259,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -17273,7 +17273,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -17287,7 +17287,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -17301,7 +17301,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -17315,7 +17315,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -17329,7 +17329,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -17343,7 +17343,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -17357,7 +17357,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -17371,7 +17371,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -17385,7 +17385,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -17399,7 +17399,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -17413,7 +17413,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -17427,7 +17427,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -17441,7 +17441,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -17455,7 +17455,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -17469,7 +17469,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -17483,7 +17483,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -17497,7 +17497,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -17511,7 +17511,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -17525,7 +17525,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -17539,7 +17539,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -17553,7 +17553,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -17567,7 +17567,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -17581,7 +17581,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -17595,7 +17595,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -17609,7 +17609,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -17623,7 +17623,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -17637,7 +17637,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -17651,7 +17651,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -17665,7 +17665,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -17679,7 +17679,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -17693,7 +17693,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -17707,7 +17707,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -17721,7 +17721,7 @@
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -17735,7 +17735,7 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -17749,7 +17749,7 @@
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -17763,7 +17763,7 @@
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -17777,7 +17777,7 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -17791,7 +17791,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -17805,7 +17805,7 @@
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -17819,7 +17819,7 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -17833,7 +17833,7 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -17847,7 +17847,7 @@
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -17861,7 +17861,7 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -17875,7 +17875,7 @@
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -17889,7 +17889,7 @@
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -17903,7 +17903,7 @@
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -17917,7 +17917,7 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -17931,7 +17931,7 @@
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -17945,7 +17945,7 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -17959,7 +17959,7 @@
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -17973,7 +17973,7 @@
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -17987,7 +17987,7 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -18001,7 +18001,7 @@
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -18015,7 +18015,7 @@
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -18029,7 +18029,7 @@
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -18043,7 +18043,7 @@
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
     </row>
-    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -18057,7 +18057,7 @@
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -18071,7 +18071,7 @@
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -18085,7 +18085,7 @@
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -18099,7 +18099,7 @@
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
     </row>
-    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -18113,7 +18113,7 @@
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -18127,7 +18127,7 @@
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -18141,7 +18141,7 @@
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -18155,7 +18155,7 @@
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
     </row>
-    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -18169,7 +18169,7 @@
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
     </row>
-    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -18183,7 +18183,7 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -18197,7 +18197,7 @@
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -18211,7 +18211,7 @@
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -18225,7 +18225,7 @@
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -18239,7 +18239,7 @@
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -18253,7 +18253,7 @@
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -18267,7 +18267,7 @@
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -18281,7 +18281,7 @@
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -18295,7 +18295,7 @@
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -18309,7 +18309,7 @@
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -18323,7 +18323,7 @@
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -18337,7 +18337,7 @@
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -18351,7 +18351,7 @@
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -18365,7 +18365,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -18379,7 +18379,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -18393,7 +18393,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -18407,7 +18407,7 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -18421,7 +18421,7 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
     </row>
-    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -18435,7 +18435,7 @@
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
     </row>
-    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -18449,7 +18449,7 @@
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -18463,7 +18463,7 @@
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -18477,7 +18477,7 @@
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -18491,7 +18491,7 @@
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -18505,7 +18505,7 @@
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -18519,7 +18519,7 @@
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -18533,7 +18533,7 @@
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -18547,7 +18547,7 @@
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
     </row>
-    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -18561,7 +18561,7 @@
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -18575,7 +18575,7 @@
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -18589,7 +18589,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -18603,7 +18603,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -18617,7 +18617,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -18631,7 +18631,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -18645,7 +18645,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -18659,7 +18659,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -18673,7 +18673,7 @@
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -18687,7 +18687,7 @@
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -18701,7 +18701,7 @@
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -18715,7 +18715,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -18729,7 +18729,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -18743,7 +18743,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -18757,7 +18757,7 @@
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -18771,7 +18771,7 @@
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -18785,7 +18785,7 @@
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -18799,7 +18799,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -18813,7 +18813,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -18827,7 +18827,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -18841,7 +18841,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -18855,7 +18855,7 @@
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -18869,7 +18869,7 @@
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -18883,7 +18883,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -18897,7 +18897,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -18911,7 +18911,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -18925,7 +18925,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -18939,7 +18939,7 @@
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -18953,7 +18953,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -18967,7 +18967,7 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -18981,7 +18981,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -18995,7 +18995,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -19009,7 +19009,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -19023,7 +19023,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -19037,7 +19037,7 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -19051,7 +19051,7 @@
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -19065,7 +19065,7 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -19079,7 +19079,7 @@
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -19093,7 +19093,7 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -19107,7 +19107,7 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -19121,7 +19121,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -19135,7 +19135,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -19149,7 +19149,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -19163,7 +19163,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -19177,7 +19177,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -19191,7 +19191,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -19205,7 +19205,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -19219,7 +19219,7 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -19233,7 +19233,7 @@
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -19247,7 +19247,7 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -19261,7 +19261,7 @@
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
     </row>
-    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -19275,7 +19275,7 @@
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
     </row>
-    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -19289,7 +19289,7 @@
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
     </row>
-    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -19303,7 +19303,7 @@
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -19317,7 +19317,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -19331,7 +19331,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -19345,7 +19345,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -19359,7 +19359,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -19373,7 +19373,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -19387,7 +19387,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -19401,7 +19401,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -19415,7 +19415,7 @@
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -19429,7 +19429,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -19443,7 +19443,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -19457,7 +19457,7 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -19471,7 +19471,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -19485,7 +19485,7 @@
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -19499,7 +19499,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -19513,7 +19513,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -19527,7 +19527,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -19541,7 +19541,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -19555,7 +19555,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -19569,7 +19569,7 @@
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -19583,7 +19583,7 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -19597,7 +19597,7 @@
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -19611,7 +19611,7 @@
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -19625,7 +19625,7 @@
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -19639,7 +19639,7 @@
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -19653,7 +19653,7 @@
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -19667,7 +19667,7 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -19681,7 +19681,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -19695,7 +19695,7 @@
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -19709,7 +19709,7 @@
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -19723,7 +19723,7 @@
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -19737,7 +19737,7 @@
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -19751,7 +19751,7 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -19765,7 +19765,7 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -19779,7 +19779,7 @@
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -19793,7 +19793,7 @@
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -19807,7 +19807,7 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -19821,7 +19821,7 @@
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -19835,7 +19835,7 @@
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -19849,7 +19849,7 @@
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -19863,7 +19863,7 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -19877,7 +19877,7 @@
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -19891,7 +19891,7 @@
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -19905,7 +19905,7 @@
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -19919,7 +19919,7 @@
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -19933,7 +19933,7 @@
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -19947,7 +19947,7 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -19961,7 +19961,7 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -19975,7 +19975,7 @@
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -19989,7 +19989,7 @@
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -20003,7 +20003,7 @@
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -20017,7 +20017,7 @@
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -20031,7 +20031,7 @@
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -20045,7 +20045,7 @@
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -20059,7 +20059,7 @@
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -20073,7 +20073,7 @@
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -20087,7 +20087,7 @@
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -20101,7 +20101,7 @@
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -20115,7 +20115,7 @@
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -20129,7 +20129,7 @@
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -20143,7 +20143,7 @@
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -20157,7 +20157,7 @@
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -20171,7 +20171,7 @@
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -20185,7 +20185,7 @@
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -20199,7 +20199,7 @@
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -20213,7 +20213,7 @@
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -20227,7 +20227,7 @@
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -20241,7 +20241,7 @@
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -20255,7 +20255,7 @@
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -20269,7 +20269,7 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -20283,7 +20283,7 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -20297,7 +20297,7 @@
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -20311,7 +20311,7 @@
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -20325,7 +20325,7 @@
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -20339,7 +20339,7 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -20353,7 +20353,7 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -20367,7 +20367,7 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -20381,7 +20381,7 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -20395,7 +20395,7 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -20409,7 +20409,7 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -20423,7 +20423,7 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -20437,7 +20437,7 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -20451,7 +20451,7 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -20465,7 +20465,7 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -20479,7 +20479,7 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -20493,7 +20493,7 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -20507,7 +20507,7 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -20521,7 +20521,7 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -20535,7 +20535,7 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -20549,7 +20549,7 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -20563,7 +20563,7 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -20577,7 +20577,7 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -20591,7 +20591,7 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -20605,7 +20605,7 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -20619,7 +20619,7 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -20633,7 +20633,7 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -20647,7 +20647,7 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -20661,7 +20661,7 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -20675,7 +20675,7 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -20689,7 +20689,7 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -20703,7 +20703,7 @@
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -20717,7 +20717,7 @@
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -20731,7 +20731,7 @@
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -20745,7 +20745,7 @@
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -20759,7 +20759,7 @@
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -20773,7 +20773,7 @@
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -20787,7 +20787,7 @@
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -20801,7 +20801,7 @@
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -20815,7 +20815,7 @@
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -20829,7 +20829,7 @@
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
     </row>
-    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -20843,7 +20843,7 @@
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -20857,7 +20857,7 @@
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -20871,7 +20871,7 @@
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -20885,7 +20885,7 @@
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -20899,7 +20899,7 @@
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -20913,7 +20913,7 @@
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -20927,7 +20927,7 @@
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
     </row>
-    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -20941,7 +20941,7 @@
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -20955,7 +20955,7 @@
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -20969,7 +20969,7 @@
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -20983,7 +20983,7 @@
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -20997,7 +20997,7 @@
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -21011,7 +21011,7 @@
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -21025,7 +21025,7 @@
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
     </row>
-    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -21039,7 +21039,7 @@
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -21053,7 +21053,7 @@
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -21067,7 +21067,7 @@
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -21081,7 +21081,7 @@
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -21095,7 +21095,7 @@
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -21109,7 +21109,7 @@
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -21123,7 +21123,7 @@
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
     </row>
-    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -21137,7 +21137,7 @@
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -21151,7 +21151,7 @@
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -21165,7 +21165,7 @@
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -21179,7 +21179,7 @@
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -21193,7 +21193,7 @@
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -21207,7 +21207,7 @@
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
     </row>
-    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -21221,7 +21221,7 @@
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -21235,7 +21235,7 @@
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -21249,7 +21249,7 @@
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -21263,7 +21263,7 @@
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -21277,7 +21277,7 @@
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -21291,7 +21291,7 @@
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -21305,7 +21305,7 @@
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -21319,7 +21319,7 @@
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -21333,7 +21333,7 @@
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
     </row>
-    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -21347,7 +21347,7 @@
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -21361,7 +21361,7 @@
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -21375,7 +21375,7 @@
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -21389,7 +21389,7 @@
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -21403,7 +21403,7 @@
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -21417,7 +21417,7 @@
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -21431,7 +21431,7 @@
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -21445,7 +21445,7 @@
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
     </row>
-    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -21459,7 +21459,7 @@
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -21473,7 +21473,7 @@
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -21487,7 +21487,7 @@
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -21501,7 +21501,7 @@
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -21515,7 +21515,7 @@
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -21529,7 +21529,7 @@
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -21543,7 +21543,7 @@
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -21557,7 +21557,7 @@
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
     </row>
-    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -21571,7 +21571,7 @@
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -21585,7 +21585,7 @@
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -21599,7 +21599,7 @@
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -21613,7 +21613,7 @@
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -21627,7 +21627,7 @@
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -21641,7 +21641,7 @@
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -21655,7 +21655,7 @@
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -21669,7 +21669,7 @@
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
     </row>
-    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -21683,7 +21683,7 @@
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -21697,7 +21697,7 @@
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -21711,7 +21711,7 @@
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -21725,7 +21725,7 @@
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -21739,7 +21739,7 @@
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -21753,7 +21753,7 @@
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -21767,7 +21767,7 @@
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
     </row>
-    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -21781,7 +21781,7 @@
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -21795,7 +21795,7 @@
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -21809,7 +21809,7 @@
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -21823,7 +21823,7 @@
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -21837,7 +21837,7 @@
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -21851,7 +21851,7 @@
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -21865,7 +21865,7 @@
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -21879,7 +21879,7 @@
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -21893,7 +21893,7 @@
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
     </row>
-    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -21907,7 +21907,7 @@
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -21921,7 +21921,7 @@
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -21935,7 +21935,7 @@
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -21949,7 +21949,7 @@
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -21963,7 +21963,7 @@
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -21977,7 +21977,7 @@
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
     </row>
-    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -21991,7 +21991,7 @@
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -22005,7 +22005,7 @@
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -22019,7 +22019,7 @@
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -22033,7 +22033,7 @@
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -22047,7 +22047,7 @@
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -22061,7 +22061,7 @@
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -22075,7 +22075,7 @@
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -22089,7 +22089,7 @@
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
     </row>
-    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -22103,7 +22103,7 @@
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -22117,7 +22117,7 @@
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -22131,7 +22131,7 @@
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -22145,7 +22145,7 @@
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -22159,7 +22159,7 @@
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -22173,7 +22173,7 @@
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -22187,7 +22187,7 @@
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -22201,7 +22201,7 @@
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -22215,7 +22215,7 @@
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
     </row>
-    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -22229,7 +22229,7 @@
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -22243,7 +22243,7 @@
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -22257,7 +22257,7 @@
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -22271,7 +22271,7 @@
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -22285,7 +22285,7 @@
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -22299,7 +22299,7 @@
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -22313,7 +22313,7 @@
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -22327,7 +22327,7 @@
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
     </row>
-    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -22341,7 +22341,7 @@
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -22355,7 +22355,7 @@
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -22369,7 +22369,7 @@
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -22383,7 +22383,7 @@
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -22397,7 +22397,7 @@
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -22411,7 +22411,7 @@
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -22425,7 +22425,7 @@
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -22439,7 +22439,7 @@
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -22453,7 +22453,7 @@
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -22467,7 +22467,7 @@
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -22481,7 +22481,7 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -22495,7 +22495,7 @@
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -22509,7 +22509,7 @@
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -22523,7 +22523,7 @@
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
     </row>
-    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -22537,7 +22537,7 @@
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -22551,7 +22551,7 @@
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -22565,7 +22565,7 @@
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -22579,7 +22579,7 @@
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -22593,7 +22593,7 @@
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -22607,7 +22607,7 @@
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
     </row>
-    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -22621,7 +22621,7 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -22635,7 +22635,7 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -22649,7 +22649,7 @@
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -22663,7 +22663,7 @@
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -22677,7 +22677,7 @@
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
     </row>
-    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -22691,7 +22691,7 @@
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -22705,7 +22705,7 @@
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -22719,7 +22719,7 @@
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -22733,7 +22733,7 @@
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -22747,7 +22747,7 @@
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -22761,7 +22761,7 @@
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -22775,7 +22775,7 @@
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
     </row>
-    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -22789,7 +22789,7 @@
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -22803,7 +22803,7 @@
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -22817,7 +22817,7 @@
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -22831,7 +22831,7 @@
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -22845,7 +22845,7 @@
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -22859,7 +22859,7 @@
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -22873,7 +22873,7 @@
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -22887,7 +22887,7 @@
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -22901,7 +22901,7 @@
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -22915,7 +22915,7 @@
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -22929,7 +22929,7 @@
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -22943,7 +22943,7 @@
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -22957,7 +22957,7 @@
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -22971,7 +22971,7 @@
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -22985,7 +22985,7 @@
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -22999,7 +22999,7 @@
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -23013,7 +23013,7 @@
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -23027,7 +23027,7 @@
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -23041,7 +23041,7 @@
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -23055,7 +23055,7 @@
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -23069,7 +23069,7 @@
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -23083,7 +23083,7 @@
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -23097,7 +23097,7 @@
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -23111,7 +23111,7 @@
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -23125,7 +23125,7 @@
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -23139,7 +23139,7 @@
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -23153,7 +23153,7 @@
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -23167,7 +23167,7 @@
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
     </row>
-    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -23181,7 +23181,7 @@
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -23195,7 +23195,7 @@
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -23209,7 +23209,7 @@
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -23223,7 +23223,7 @@
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -23237,7 +23237,7 @@
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -23251,7 +23251,7 @@
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -23265,7 +23265,7 @@
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -23279,7 +23279,7 @@
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -23293,7 +23293,7 @@
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -23307,7 +23307,7 @@
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -23321,7 +23321,7 @@
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
     </row>
-    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -23335,7 +23335,7 @@
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -23349,7 +23349,7 @@
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -23363,7 +23363,7 @@
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -23377,7 +23377,7 @@
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -23391,7 +23391,7 @@
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
     </row>
-    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -23405,7 +23405,7 @@
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
     </row>
-    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -23419,7 +23419,7 @@
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
     </row>
-    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23433,7 +23433,7 @@
       <c r="K543" s="3"/>
       <c r="L543" s="3"/>
     </row>
-    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -23447,7 +23447,7 @@
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
     </row>
-    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23461,7 +23461,7 @@
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
     </row>
-    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -23475,7 +23475,7 @@
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
     </row>
-    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -23489,7 +23489,7 @@
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
     </row>
-    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23503,7 +23503,7 @@
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
     </row>
-    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -23517,7 +23517,7 @@
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
     </row>
-    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -23531,7 +23531,7 @@
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -23545,7 +23545,7 @@
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -23559,7 +23559,7 @@
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
     </row>
-    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -23573,7 +23573,7 @@
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
     </row>
-    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -23587,7 +23587,7 @@
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
     </row>
-    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -23601,7 +23601,7 @@
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
     </row>
-    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -23615,7 +23615,7 @@
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
     </row>
-    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -23629,7 +23629,7 @@
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -23643,7 +23643,7 @@
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
     </row>
-    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -23657,7 +23657,7 @@
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
     </row>
-    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -23671,7 +23671,7 @@
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -23685,7 +23685,7 @@
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -23699,7 +23699,7 @@
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -23713,7 +23713,7 @@
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -23727,7 +23727,7 @@
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -23741,7 +23741,7 @@
       <c r="K565" s="3"/>
       <c r="L565" s="3"/>
     </row>
-    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -23755,7 +23755,7 @@
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -23769,7 +23769,7 @@
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -23783,7 +23783,7 @@
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -23797,7 +23797,7 @@
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -23811,7 +23811,7 @@
       <c r="K570" s="3"/>
       <c r="L570" s="3"/>
     </row>
-    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -23825,7 +23825,7 @@
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
     </row>
-    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -23839,7 +23839,7 @@
       <c r="K572" s="3"/>
       <c r="L572" s="3"/>
     </row>
-    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -23853,7 +23853,7 @@
       <c r="K573" s="3"/>
       <c r="L573" s="3"/>
     </row>
-    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -23867,7 +23867,7 @@
       <c r="K574" s="3"/>
       <c r="L574" s="3"/>
     </row>
-    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -23881,7 +23881,7 @@
       <c r="K575" s="3"/>
       <c r="L575" s="3"/>
     </row>
-    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -23895,7 +23895,7 @@
       <c r="K576" s="3"/>
       <c r="L576" s="3"/>
     </row>
-    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -23909,7 +23909,7 @@
       <c r="K577" s="3"/>
       <c r="L577" s="3"/>
     </row>
-    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -23923,7 +23923,7 @@
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
     </row>
-    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -23937,7 +23937,7 @@
       <c r="K579" s="3"/>
       <c r="L579" s="3"/>
     </row>
-    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -23951,7 +23951,7 @@
       <c r="K580" s="3"/>
       <c r="L580" s="3"/>
     </row>
-    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -23965,7 +23965,7 @@
       <c r="K581" s="3"/>
       <c r="L581" s="3"/>
     </row>
-    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -23979,7 +23979,7 @@
       <c r="K582" s="3"/>
       <c r="L582" s="3"/>
     </row>
-    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -23993,7 +23993,7 @@
       <c r="K583" s="3"/>
       <c r="L583" s="3"/>
     </row>
-    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -24007,7 +24007,7 @@
       <c r="K584" s="3"/>
       <c r="L584" s="3"/>
     </row>
-    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -24021,7 +24021,7 @@
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
     </row>
-    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -24035,7 +24035,7 @@
       <c r="K586" s="3"/>
       <c r="L586" s="3"/>
     </row>
-    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -24049,7 +24049,7 @@
       <c r="K587" s="3"/>
       <c r="L587" s="3"/>
     </row>
-    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -24063,7 +24063,7 @@
       <c r="K588" s="3"/>
       <c r="L588" s="3"/>
     </row>
-    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -24077,7 +24077,7 @@
       <c r="K589" s="3"/>
       <c r="L589" s="3"/>
     </row>
-    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -24091,7 +24091,7 @@
       <c r="K590" s="3"/>
       <c r="L590" s="3"/>
     </row>
-    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -24105,7 +24105,7 @@
       <c r="K591" s="3"/>
       <c r="L591" s="3"/>
     </row>
-    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -24119,7 +24119,7 @@
       <c r="K592" s="3"/>
       <c r="L592" s="3"/>
     </row>
-    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -24133,7 +24133,7 @@
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
     </row>
-    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -24147,7 +24147,7 @@
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
     </row>
-    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -24161,7 +24161,7 @@
       <c r="K595" s="3"/>
       <c r="L595" s="3"/>
     </row>
-    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -24175,7 +24175,7 @@
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
     </row>
-    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -24189,7 +24189,7 @@
       <c r="K597" s="3"/>
       <c r="L597" s="3"/>
     </row>
-    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -24203,7 +24203,7 @@
       <c r="K598" s="3"/>
       <c r="L598" s="3"/>
     </row>
-    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -24217,7 +24217,7 @@
       <c r="K599" s="3"/>
       <c r="L599" s="3"/>
     </row>
-    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -24231,7 +24231,7 @@
       <c r="K600" s="3"/>
       <c r="L600" s="3"/>
     </row>
-    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -24245,7 +24245,7 @@
       <c r="K601" s="3"/>
       <c r="L601" s="3"/>
     </row>
-    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -24259,7 +24259,7 @@
       <c r="K602" s="3"/>
       <c r="L602" s="3"/>
     </row>
-    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -24273,7 +24273,7 @@
       <c r="K603" s="3"/>
       <c r="L603" s="3"/>
     </row>
-    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -24287,7 +24287,7 @@
       <c r="K604" s="3"/>
       <c r="L604" s="3"/>
     </row>
-    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -24301,7 +24301,7 @@
       <c r="K605" s="3"/>
       <c r="L605" s="3"/>
     </row>
-    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -24315,7 +24315,7 @@
       <c r="K606" s="3"/>
       <c r="L606" s="3"/>
     </row>
-    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -24329,7 +24329,7 @@
       <c r="K607" s="3"/>
       <c r="L607" s="3"/>
     </row>
-    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -24343,7 +24343,7 @@
       <c r="K608" s="3"/>
       <c r="L608" s="3"/>
     </row>
-    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -24357,7 +24357,7 @@
       <c r="K609" s="3"/>
       <c r="L609" s="3"/>
     </row>
-    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -24371,7 +24371,7 @@
       <c r="K610" s="3"/>
       <c r="L610" s="3"/>
     </row>
-    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -24385,7 +24385,7 @@
       <c r="K611" s="3"/>
       <c r="L611" s="3"/>
     </row>
-    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -24399,7 +24399,7 @@
       <c r="K612" s="3"/>
       <c r="L612" s="3"/>
     </row>
-    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -24413,7 +24413,7 @@
       <c r="K613" s="3"/>
       <c r="L613" s="3"/>
     </row>
-    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -24427,7 +24427,7 @@
       <c r="K614" s="3"/>
       <c r="L614" s="3"/>
     </row>
-    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -24441,7 +24441,7 @@
       <c r="K615" s="3"/>
       <c r="L615" s="3"/>
     </row>
-    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -24455,7 +24455,7 @@
       <c r="K616" s="3"/>
       <c r="L616" s="3"/>
     </row>
-    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -24469,7 +24469,7 @@
       <c r="K617" s="3"/>
       <c r="L617" s="3"/>
     </row>
-    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -24483,7 +24483,7 @@
       <c r="K618" s="3"/>
       <c r="L618" s="3"/>
     </row>
-    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -24497,7 +24497,7 @@
       <c r="K619" s="3"/>
       <c r="L619" s="3"/>
     </row>
-    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -24511,7 +24511,7 @@
       <c r="K620" s="3"/>
       <c r="L620" s="3"/>
     </row>
-    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -24525,7 +24525,7 @@
       <c r="K621" s="3"/>
       <c r="L621" s="3"/>
     </row>
-    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -24539,7 +24539,7 @@
       <c r="K622" s="3"/>
       <c r="L622" s="3"/>
     </row>
-    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -24553,7 +24553,7 @@
       <c r="K623" s="3"/>
       <c r="L623" s="3"/>
     </row>
-    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -24567,7 +24567,7 @@
       <c r="K624" s="3"/>
       <c r="L624" s="3"/>
     </row>
-    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -24581,7 +24581,7 @@
       <c r="K625" s="3"/>
       <c r="L625" s="3"/>
     </row>
-    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -24595,7 +24595,7 @@
       <c r="K626" s="3"/>
       <c r="L626" s="3"/>
     </row>
-    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -24609,7 +24609,7 @@
       <c r="K627" s="3"/>
       <c r="L627" s="3"/>
     </row>
-    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -24623,7 +24623,7 @@
       <c r="K628" s="3"/>
       <c r="L628" s="3"/>
     </row>
-    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -24637,7 +24637,7 @@
       <c r="K629" s="3"/>
       <c r="L629" s="3"/>
     </row>
-    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -24651,7 +24651,7 @@
       <c r="K630" s="3"/>
       <c r="L630" s="3"/>
     </row>
-    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -24665,7 +24665,7 @@
       <c r="K631" s="3"/>
       <c r="L631" s="3"/>
     </row>
-    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -24679,7 +24679,7 @@
       <c r="K632" s="3"/>
       <c r="L632" s="3"/>
     </row>
-    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -24693,7 +24693,7 @@
       <c r="K633" s="3"/>
       <c r="L633" s="3"/>
     </row>
-    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -24707,7 +24707,7 @@
       <c r="K634" s="3"/>
       <c r="L634" s="3"/>
     </row>
-    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -24721,7 +24721,7 @@
       <c r="K635" s="3"/>
       <c r="L635" s="3"/>
     </row>
-    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -24735,7 +24735,7 @@
       <c r="K636" s="3"/>
       <c r="L636" s="3"/>
     </row>
-    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -24749,7 +24749,7 @@
       <c r="K637" s="3"/>
       <c r="L637" s="3"/>
     </row>
-    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -24763,7 +24763,7 @@
       <c r="K638" s="3"/>
       <c r="L638" s="3"/>
     </row>
-    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -24777,7 +24777,7 @@
       <c r="K639" s="3"/>
       <c r="L639" s="3"/>
     </row>
-    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -24791,7 +24791,7 @@
       <c r="K640" s="3"/>
       <c r="L640" s="3"/>
     </row>
-    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -24805,7 +24805,7 @@
       <c r="K641" s="3"/>
       <c r="L641" s="3"/>
     </row>
-    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -24819,7 +24819,7 @@
       <c r="K642" s="3"/>
       <c r="L642" s="3"/>
     </row>
-    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -24833,7 +24833,7 @@
       <c r="K643" s="3"/>
       <c r="L643" s="3"/>
     </row>
-    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -24847,7 +24847,7 @@
       <c r="K644" s="3"/>
       <c r="L644" s="3"/>
     </row>
-    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -24861,7 +24861,7 @@
       <c r="K645" s="3"/>
       <c r="L645" s="3"/>
     </row>
-    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -24875,7 +24875,7 @@
       <c r="K646" s="3"/>
       <c r="L646" s="3"/>
     </row>
-    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -24889,7 +24889,7 @@
       <c r="K647" s="3"/>
       <c r="L647" s="3"/>
     </row>
-    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -24903,7 +24903,7 @@
       <c r="K648" s="3"/>
       <c r="L648" s="3"/>
     </row>
-    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -24917,7 +24917,7 @@
       <c r="K649" s="3"/>
       <c r="L649" s="3"/>
     </row>
-    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -24931,7 +24931,7 @@
       <c r="K650" s="3"/>
       <c r="L650" s="3"/>
     </row>
-    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -24945,7 +24945,7 @@
       <c r="K651" s="3"/>
       <c r="L651" s="3"/>
     </row>
-    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -24959,7 +24959,7 @@
       <c r="K652" s="3"/>
       <c r="L652" s="3"/>
     </row>
-    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -24973,7 +24973,7 @@
       <c r="K653" s="3"/>
       <c r="L653" s="3"/>
     </row>
-    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -24987,7 +24987,7 @@
       <c r="K654" s="3"/>
       <c r="L654" s="3"/>
     </row>
-    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -25001,7 +25001,7 @@
       <c r="K655" s="3"/>
       <c r="L655" s="3"/>
     </row>
-    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -25015,7 +25015,7 @@
       <c r="K656" s="3"/>
       <c r="L656" s="3"/>
     </row>
-    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -25029,7 +25029,7 @@
       <c r="K657" s="3"/>
       <c r="L657" s="3"/>
     </row>
-    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -25043,7 +25043,7 @@
       <c r="K658" s="3"/>
       <c r="L658" s="3"/>
     </row>
-    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -25057,7 +25057,7 @@
       <c r="K659" s="3"/>
       <c r="L659" s="3"/>
     </row>
-    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -25071,7 +25071,7 @@
       <c r="K660" s="3"/>
       <c r="L660" s="3"/>
     </row>
-    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -25085,7 +25085,7 @@
       <c r="K661" s="3"/>
       <c r="L661" s="3"/>
     </row>
-    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -25099,7 +25099,7 @@
       <c r="K662" s="3"/>
       <c r="L662" s="3"/>
     </row>
-    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -25113,7 +25113,7 @@
       <c r="K663" s="3"/>
       <c r="L663" s="3"/>
     </row>
-    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -25127,7 +25127,7 @@
       <c r="K664" s="3"/>
       <c r="L664" s="3"/>
     </row>
-    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -25141,7 +25141,7 @@
       <c r="K665" s="3"/>
       <c r="L665" s="3"/>
     </row>
-    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -25155,7 +25155,7 @@
       <c r="K666" s="3"/>
       <c r="L666" s="3"/>
     </row>
-    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -25169,7 +25169,7 @@
       <c r="K667" s="3"/>
       <c r="L667" s="3"/>
     </row>
-    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -25183,7 +25183,7 @@
       <c r="K668" s="3"/>
       <c r="L668" s="3"/>
     </row>
-    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -25197,7 +25197,7 @@
       <c r="K669" s="3"/>
       <c r="L669" s="3"/>
     </row>
-    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -25211,7 +25211,7 @@
       <c r="K670" s="3"/>
       <c r="L670" s="3"/>
     </row>
-    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -25225,7 +25225,7 @@
       <c r="K671" s="3"/>
       <c r="L671" s="3"/>
     </row>
-    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -25239,7 +25239,7 @@
       <c r="K672" s="3"/>
       <c r="L672" s="3"/>
     </row>
-    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -25253,7 +25253,7 @@
       <c r="K673" s="3"/>
       <c r="L673" s="3"/>
     </row>
-    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -25267,7 +25267,7 @@
       <c r="K674" s="3"/>
       <c r="L674" s="3"/>
     </row>
-    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -25281,7 +25281,7 @@
       <c r="K675" s="3"/>
       <c r="L675" s="3"/>
     </row>
-    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -25295,7 +25295,7 @@
       <c r="K676" s="3"/>
       <c r="L676" s="3"/>
     </row>
-    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -25309,7 +25309,7 @@
       <c r="K677" s="3"/>
       <c r="L677" s="3"/>
     </row>
-    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -25323,7 +25323,7 @@
       <c r="K678" s="3"/>
       <c r="L678" s="3"/>
     </row>
-    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -25337,7 +25337,7 @@
       <c r="K679" s="3"/>
       <c r="L679" s="3"/>
     </row>
-    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -25351,7 +25351,7 @@
       <c r="K680" s="3"/>
       <c r="L680" s="3"/>
     </row>
-    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -25365,7 +25365,7 @@
       <c r="K681" s="3"/>
       <c r="L681" s="3"/>
     </row>
-    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -25379,7 +25379,7 @@
       <c r="K682" s="3"/>
       <c r="L682" s="3"/>
     </row>
-    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -25393,7 +25393,7 @@
       <c r="K683" s="3"/>
       <c r="L683" s="3"/>
     </row>
-    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -25407,7 +25407,7 @@
       <c r="K684" s="3"/>
       <c r="L684" s="3"/>
     </row>
-    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -25421,7 +25421,7 @@
       <c r="K685" s="3"/>
       <c r="L685" s="3"/>
     </row>
-    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -25435,7 +25435,7 @@
       <c r="K686" s="3"/>
       <c r="L686" s="3"/>
     </row>
-    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -25449,7 +25449,7 @@
       <c r="K687" s="3"/>
       <c r="L687" s="3"/>
     </row>
-    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -25463,7 +25463,7 @@
       <c r="K688" s="3"/>
       <c r="L688" s="3"/>
     </row>
-    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -25477,7 +25477,7 @@
       <c r="K689" s="3"/>
       <c r="L689" s="3"/>
     </row>
-    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -25491,7 +25491,7 @@
       <c r="K690" s="3"/>
       <c r="L690" s="3"/>
     </row>
-    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -25505,7 +25505,7 @@
       <c r="K691" s="3"/>
       <c r="L691" s="3"/>
     </row>
-    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -25519,7 +25519,7 @@
       <c r="K692" s="3"/>
       <c r="L692" s="3"/>
     </row>
-    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -25533,7 +25533,7 @@
       <c r="K693" s="3"/>
       <c r="L693" s="3"/>
     </row>
-    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -25547,7 +25547,7 @@
       <c r="K694" s="3"/>
       <c r="L694" s="3"/>
     </row>
-    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -25561,7 +25561,7 @@
       <c r="K695" s="3"/>
       <c r="L695" s="3"/>
     </row>
-    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -25575,7 +25575,7 @@
       <c r="K696" s="3"/>
       <c r="L696" s="3"/>
     </row>
-    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -25589,7 +25589,7 @@
       <c r="K697" s="3"/>
       <c r="L697" s="3"/>
     </row>
-    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -25603,7 +25603,7 @@
       <c r="K698" s="3"/>
       <c r="L698" s="3"/>
     </row>
-    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -25617,7 +25617,7 @@
       <c r="K699" s="3"/>
       <c r="L699" s="3"/>
     </row>
-    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -25631,7 +25631,7 @@
       <c r="K700" s="3"/>
       <c r="L700" s="3"/>
     </row>
-    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -25645,7 +25645,7 @@
       <c r="K701" s="3"/>
       <c r="L701" s="3"/>
     </row>
-    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -25659,7 +25659,7 @@
       <c r="K702" s="3"/>
       <c r="L702" s="3"/>
     </row>
-    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -25673,7 +25673,7 @@
       <c r="K703" s="3"/>
       <c r="L703" s="3"/>
     </row>
-    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -25687,7 +25687,7 @@
       <c r="K704" s="3"/>
       <c r="L704" s="3"/>
     </row>
-    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -25701,7 +25701,7 @@
       <c r="K705" s="3"/>
       <c r="L705" s="3"/>
     </row>
-    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -25715,7 +25715,7 @@
       <c r="K706" s="3"/>
       <c r="L706" s="3"/>
     </row>
-    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -25729,7 +25729,7 @@
       <c r="K707" s="3"/>
       <c r="L707" s="3"/>
     </row>
-    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -25743,7 +25743,7 @@
       <c r="K708" s="3"/>
       <c r="L708" s="3"/>
     </row>
-    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -25757,7 +25757,7 @@
       <c r="K709" s="3"/>
       <c r="L709" s="3"/>
     </row>
-    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -25771,7 +25771,7 @@
       <c r="K710" s="3"/>
       <c r="L710" s="3"/>
     </row>
-    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -25785,7 +25785,7 @@
       <c r="K711" s="3"/>
       <c r="L711" s="3"/>
     </row>
-    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -25799,7 +25799,7 @@
       <c r="K712" s="3"/>
       <c r="L712" s="3"/>
     </row>
-    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -25813,7 +25813,7 @@
       <c r="K713" s="3"/>
       <c r="L713" s="3"/>
     </row>
-    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -25827,7 +25827,7 @@
       <c r="K714" s="3"/>
       <c r="L714" s="3"/>
     </row>
-    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -25841,7 +25841,7 @@
       <c r="K715" s="3"/>
       <c r="L715" s="3"/>
     </row>
-    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -25855,7 +25855,7 @@
       <c r="K716" s="3"/>
       <c r="L716" s="3"/>
     </row>
-    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -25869,7 +25869,7 @@
       <c r="K717" s="3"/>
       <c r="L717" s="3"/>
     </row>
-    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -25883,7 +25883,7 @@
       <c r="K718" s="3"/>
       <c r="L718" s="3"/>
     </row>
-    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -25897,7 +25897,7 @@
       <c r="K719" s="3"/>
       <c r="L719" s="3"/>
     </row>
-    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -25911,7 +25911,7 @@
       <c r="K720" s="3"/>
       <c r="L720" s="3"/>
     </row>
-    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -25925,7 +25925,7 @@
       <c r="K721" s="3"/>
       <c r="L721" s="3"/>
     </row>
-    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -25939,7 +25939,7 @@
       <c r="K722" s="3"/>
       <c r="L722" s="3"/>
     </row>
-    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -25953,7 +25953,7 @@
       <c r="K723" s="3"/>
       <c r="L723" s="3"/>
     </row>
-    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -25967,7 +25967,7 @@
       <c r="K724" s="3"/>
       <c r="L724" s="3"/>
     </row>
-    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -25981,7 +25981,7 @@
       <c r="K725" s="3"/>
       <c r="L725" s="3"/>
     </row>
-    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -25995,7 +25995,7 @@
       <c r="K726" s="3"/>
       <c r="L726" s="3"/>
     </row>
-    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -26009,7 +26009,7 @@
       <c r="K727" s="3"/>
       <c r="L727" s="3"/>
     </row>
-    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -26023,7 +26023,7 @@
       <c r="K728" s="3"/>
       <c r="L728" s="3"/>
     </row>
-    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -26037,7 +26037,7 @@
       <c r="K729" s="3"/>
       <c r="L729" s="3"/>
     </row>
-    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -26051,7 +26051,7 @@
       <c r="K730" s="3"/>
       <c r="L730" s="3"/>
     </row>
-    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -26065,7 +26065,7 @@
       <c r="K731" s="3"/>
       <c r="L731" s="3"/>
     </row>
-    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -26079,7 +26079,7 @@
       <c r="K732" s="3"/>
       <c r="L732" s="3"/>
     </row>
-    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -26093,7 +26093,7 @@
       <c r="K733" s="3"/>
       <c r="L733" s="3"/>
     </row>
-    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -26107,7 +26107,7 @@
       <c r="K734" s="3"/>
       <c r="L734" s="3"/>
     </row>
-    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -26121,7 +26121,7 @@
       <c r="K735" s="3"/>
       <c r="L735" s="3"/>
     </row>
-    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -26135,7 +26135,7 @@
       <c r="K736" s="3"/>
       <c r="L736" s="3"/>
     </row>
-    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -26149,7 +26149,7 @@
       <c r="K737" s="3"/>
       <c r="L737" s="3"/>
     </row>
-    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -26163,7 +26163,7 @@
       <c r="K738" s="3"/>
       <c r="L738" s="3"/>
     </row>
-    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -26177,7 +26177,7 @@
       <c r="K739" s="3"/>
       <c r="L739" s="3"/>
     </row>
-    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -26191,7 +26191,7 @@
       <c r="K740" s="3"/>
       <c r="L740" s="3"/>
     </row>
-    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -26205,7 +26205,7 @@
       <c r="K741" s="3"/>
       <c r="L741" s="3"/>
     </row>
-    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -26219,7 +26219,7 @@
       <c r="K742" s="3"/>
       <c r="L742" s="3"/>
     </row>
-    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -26233,7 +26233,7 @@
       <c r="K743" s="3"/>
       <c r="L743" s="3"/>
     </row>
-    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -26247,7 +26247,7 @@
       <c r="K744" s="3"/>
       <c r="L744" s="3"/>
     </row>
-    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -26261,7 +26261,7 @@
       <c r="K745" s="3"/>
       <c r="L745" s="3"/>
     </row>
-    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -26275,7 +26275,7 @@
       <c r="K746" s="3"/>
       <c r="L746" s="3"/>
     </row>
-    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -26289,7 +26289,7 @@
       <c r="K747" s="3"/>
       <c r="L747" s="3"/>
     </row>
-    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -26303,7 +26303,7 @@
       <c r="K748" s="3"/>
       <c r="L748" s="3"/>
     </row>
-    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -26317,7 +26317,7 @@
       <c r="K749" s="3"/>
       <c r="L749" s="3"/>
     </row>
-    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -26331,7 +26331,7 @@
       <c r="K750" s="3"/>
       <c r="L750" s="3"/>
     </row>
-    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -26345,7 +26345,7 @@
       <c r="K751" s="3"/>
       <c r="L751" s="3"/>
     </row>
-    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -26359,7 +26359,7 @@
       <c r="K752" s="3"/>
       <c r="L752" s="3"/>
     </row>
-    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -26373,7 +26373,7 @@
       <c r="K753" s="3"/>
       <c r="L753" s="3"/>
     </row>
-    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -26387,7 +26387,7 @@
       <c r="K754" s="3"/>
       <c r="L754" s="3"/>
     </row>
-    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -26401,7 +26401,7 @@
       <c r="K755" s="3"/>
       <c r="L755" s="3"/>
     </row>
-    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -26415,7 +26415,7 @@
       <c r="K756" s="3"/>
       <c r="L756" s="3"/>
     </row>
-    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -26429,7 +26429,7 @@
       <c r="K757" s="3"/>
       <c r="L757" s="3"/>
     </row>
-    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -26443,7 +26443,7 @@
       <c r="K758" s="3"/>
       <c r="L758" s="3"/>
     </row>
-    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -26457,7 +26457,7 @@
       <c r="K759" s="3"/>
       <c r="L759" s="3"/>
     </row>
-    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -26471,7 +26471,7 @@
       <c r="K760" s="3"/>
       <c r="L760" s="3"/>
     </row>
-    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -26485,7 +26485,7 @@
       <c r="K761" s="3"/>
       <c r="L761" s="3"/>
     </row>
-    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -26499,7 +26499,7 @@
       <c r="K762" s="3"/>
       <c r="L762" s="3"/>
     </row>
-    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -26513,7 +26513,7 @@
       <c r="K763" s="3"/>
       <c r="L763" s="3"/>
     </row>
-    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -26527,7 +26527,7 @@
       <c r="K764" s="3"/>
       <c r="L764" s="3"/>
     </row>
-    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -26541,7 +26541,7 @@
       <c r="K765" s="3"/>
       <c r="L765" s="3"/>
     </row>
-    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -26555,7 +26555,7 @@
       <c r="K766" s="3"/>
       <c r="L766" s="3"/>
     </row>
-    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -26569,7 +26569,7 @@
       <c r="K767" s="3"/>
       <c r="L767" s="3"/>
     </row>
-    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -26583,7 +26583,7 @@
       <c r="K768" s="3"/>
       <c r="L768" s="3"/>
     </row>
-    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -26597,7 +26597,7 @@
       <c r="K769" s="3"/>
       <c r="L769" s="3"/>
     </row>
-    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -26611,7 +26611,7 @@
       <c r="K770" s="3"/>
       <c r="L770" s="3"/>
     </row>
-    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -26625,7 +26625,7 @@
       <c r="K771" s="3"/>
       <c r="L771" s="3"/>
     </row>
-    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -26639,7 +26639,7 @@
       <c r="K772" s="3"/>
       <c r="L772" s="3"/>
     </row>
-    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -26653,7 +26653,7 @@
       <c r="K773" s="3"/>
       <c r="L773" s="3"/>
     </row>
-    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -26667,7 +26667,7 @@
       <c r="K774" s="3"/>
       <c r="L774" s="3"/>
     </row>
-    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -26681,7 +26681,7 @@
       <c r="K775" s="3"/>
       <c r="L775" s="3"/>
     </row>
-    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -26695,7 +26695,7 @@
       <c r="K776" s="3"/>
       <c r="L776" s="3"/>
     </row>
-    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -26709,7 +26709,7 @@
       <c r="K777" s="3"/>
       <c r="L777" s="3"/>
     </row>
-    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -26723,7 +26723,7 @@
       <c r="K778" s="3"/>
       <c r="L778" s="3"/>
     </row>
-    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -26737,7 +26737,7 @@
       <c r="K779" s="3"/>
       <c r="L779" s="3"/>
     </row>
-    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -26751,7 +26751,7 @@
       <c r="K780" s="3"/>
       <c r="L780" s="3"/>
     </row>
-    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -26765,7 +26765,7 @@
       <c r="K781" s="3"/>
       <c r="L781" s="3"/>
     </row>
-    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -26779,7 +26779,7 @@
       <c r="K782" s="3"/>
       <c r="L782" s="3"/>
     </row>
-    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -26793,7 +26793,7 @@
       <c r="K783" s="3"/>
       <c r="L783" s="3"/>
     </row>
-    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -26807,7 +26807,7 @@
       <c r="K784" s="3"/>
       <c r="L784" s="3"/>
     </row>
-    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -26821,7 +26821,7 @@
       <c r="K785" s="3"/>
       <c r="L785" s="3"/>
     </row>
-    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -26835,7 +26835,7 @@
       <c r="K786" s="3"/>
       <c r="L786" s="3"/>
     </row>
-    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -26849,7 +26849,7 @@
       <c r="K787" s="3"/>
       <c r="L787" s="3"/>
     </row>
-    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -26863,7 +26863,7 @@
       <c r="K788" s="3"/>
       <c r="L788" s="3"/>
     </row>
-    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -26877,7 +26877,7 @@
       <c r="K789" s="3"/>
       <c r="L789" s="3"/>
     </row>
-    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -26891,7 +26891,7 @@
       <c r="K790" s="3"/>
       <c r="L790" s="3"/>
     </row>
-    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -26905,7 +26905,7 @@
       <c r="K791" s="3"/>
       <c r="L791" s="3"/>
     </row>
-    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -26919,7 +26919,7 @@
       <c r="K792" s="3"/>
       <c r="L792" s="3"/>
     </row>
-    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -26933,7 +26933,7 @@
       <c r="K793" s="3"/>
       <c r="L793" s="3"/>
     </row>
-    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -26947,7 +26947,7 @@
       <c r="K794" s="3"/>
       <c r="L794" s="3"/>
     </row>
-    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -26961,7 +26961,7 @@
       <c r="K795" s="3"/>
       <c r="L795" s="3"/>
     </row>
-    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -26975,7 +26975,7 @@
       <c r="K796" s="3"/>
       <c r="L796" s="3"/>
     </row>
-    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -26989,7 +26989,7 @@
       <c r="K797" s="3"/>
       <c r="L797" s="3"/>
     </row>
-    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -27003,7 +27003,7 @@
       <c r="K798" s="3"/>
       <c r="L798" s="3"/>
     </row>
-    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -27017,7 +27017,7 @@
       <c r="K799" s="3"/>
       <c r="L799" s="3"/>
     </row>
-    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -27031,7 +27031,7 @@
       <c r="K800" s="3"/>
       <c r="L800" s="3"/>
     </row>
-    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -27045,7 +27045,7 @@
       <c r="K801" s="3"/>
       <c r="L801" s="3"/>
     </row>
-    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -27059,7 +27059,7 @@
       <c r="K802" s="3"/>
       <c r="L802" s="3"/>
     </row>
-    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -27073,7 +27073,7 @@
       <c r="K803" s="3"/>
       <c r="L803" s="3"/>
     </row>
-    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -27087,7 +27087,7 @@
       <c r="K804" s="3"/>
       <c r="L804" s="3"/>
     </row>
-    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -27101,7 +27101,7 @@
       <c r="K805" s="3"/>
       <c r="L805" s="3"/>
     </row>
-    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -27115,7 +27115,7 @@
       <c r="K806" s="3"/>
       <c r="L806" s="3"/>
     </row>
-    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -27129,7 +27129,7 @@
       <c r="K807" s="3"/>
       <c r="L807" s="3"/>
     </row>
-    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -27143,7 +27143,7 @@
       <c r="K808" s="3"/>
       <c r="L808" s="3"/>
     </row>
-    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -27157,7 +27157,7 @@
       <c r="K809" s="3"/>
       <c r="L809" s="3"/>
     </row>
-    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -27171,7 +27171,7 @@
       <c r="K810" s="3"/>
       <c r="L810" s="3"/>
     </row>
-    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -27185,7 +27185,7 @@
       <c r="K811" s="3"/>
       <c r="L811" s="3"/>
     </row>
-    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -27199,7 +27199,7 @@
       <c r="K812" s="3"/>
       <c r="L812" s="3"/>
     </row>
-    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -27213,7 +27213,7 @@
       <c r="K813" s="3"/>
       <c r="L813" s="3"/>
     </row>
-    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -27227,7 +27227,7 @@
       <c r="K814" s="3"/>
       <c r="L814" s="3"/>
     </row>
-    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -27241,7 +27241,7 @@
       <c r="K815" s="3"/>
       <c r="L815" s="3"/>
     </row>
-    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -27255,7 +27255,7 @@
       <c r="K816" s="3"/>
       <c r="L816" s="3"/>
     </row>
-    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -27269,7 +27269,7 @@
       <c r="K817" s="3"/>
       <c r="L817" s="3"/>
     </row>
-    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -27283,7 +27283,7 @@
       <c r="K818" s="3"/>
       <c r="L818" s="3"/>
     </row>
-    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -27297,7 +27297,7 @@
       <c r="K819" s="3"/>
       <c r="L819" s="3"/>
     </row>
-    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -27311,7 +27311,7 @@
       <c r="K820" s="3"/>
       <c r="L820" s="3"/>
     </row>
-    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -27325,7 +27325,7 @@
       <c r="K821" s="3"/>
       <c r="L821" s="3"/>
     </row>
-    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -27339,7 +27339,7 @@
       <c r="K822" s="3"/>
       <c r="L822" s="3"/>
     </row>
-    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -27353,7 +27353,7 @@
       <c r="K823" s="3"/>
       <c r="L823" s="3"/>
     </row>
-    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -27367,7 +27367,7 @@
       <c r="K824" s="3"/>
       <c r="L824" s="3"/>
     </row>
-    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -27381,7 +27381,7 @@
       <c r="K825" s="3"/>
       <c r="L825" s="3"/>
     </row>
-    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -27395,7 +27395,7 @@
       <c r="K826" s="3"/>
       <c r="L826" s="3"/>
     </row>
-    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -27409,7 +27409,7 @@
       <c r="K827" s="3"/>
       <c r="L827" s="3"/>
     </row>
-    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -27423,7 +27423,7 @@
       <c r="K828" s="3"/>
       <c r="L828" s="3"/>
     </row>
-    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -27437,7 +27437,7 @@
       <c r="K829" s="3"/>
       <c r="L829" s="3"/>
     </row>
-    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -27451,7 +27451,7 @@
       <c r="K830" s="3"/>
       <c r="L830" s="3"/>
     </row>
-    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -27465,7 +27465,7 @@
       <c r="K831" s="3"/>
       <c r="L831" s="3"/>
     </row>
-    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -27479,7 +27479,7 @@
       <c r="K832" s="3"/>
       <c r="L832" s="3"/>
     </row>
-    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -27493,7 +27493,7 @@
       <c r="K833" s="3"/>
       <c r="L833" s="3"/>
     </row>
-    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -27507,7 +27507,7 @@
       <c r="K834" s="3"/>
       <c r="L834" s="3"/>
     </row>
-    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -27521,7 +27521,7 @@
       <c r="K835" s="3"/>
       <c r="L835" s="3"/>
     </row>
-    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -27535,7 +27535,7 @@
       <c r="K836" s="3"/>
       <c r="L836" s="3"/>
     </row>
-    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -27549,7 +27549,7 @@
       <c r="K837" s="3"/>
       <c r="L837" s="3"/>
     </row>
-    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -27563,7 +27563,7 @@
       <c r="K838" s="3"/>
       <c r="L838" s="3"/>
     </row>
-    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -27577,7 +27577,7 @@
       <c r="K839" s="3"/>
       <c r="L839" s="3"/>
     </row>
-    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -27591,7 +27591,7 @@
       <c r="K840" s="3"/>
       <c r="L840" s="3"/>
     </row>
-    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -27605,7 +27605,7 @@
       <c r="K841" s="3"/>
       <c r="L841" s="3"/>
     </row>
-    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -27619,7 +27619,7 @@
       <c r="K842" s="3"/>
       <c r="L842" s="3"/>
     </row>
-    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -27633,7 +27633,7 @@
       <c r="K843" s="3"/>
       <c r="L843" s="3"/>
     </row>
-    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -27647,7 +27647,7 @@
       <c r="K844" s="3"/>
       <c r="L844" s="3"/>
     </row>
-    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -27661,7 +27661,7 @@
       <c r="K845" s="3"/>
       <c r="L845" s="3"/>
     </row>
-    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -27675,7 +27675,7 @@
       <c r="K846" s="3"/>
       <c r="L846" s="3"/>
     </row>
-    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -27689,7 +27689,7 @@
       <c r="K847" s="3"/>
       <c r="L847" s="3"/>
     </row>
-    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -27703,7 +27703,7 @@
       <c r="K848" s="3"/>
       <c r="L848" s="3"/>
     </row>
-    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -27717,7 +27717,7 @@
       <c r="K849" s="3"/>
       <c r="L849" s="3"/>
     </row>
-    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -27731,7 +27731,7 @@
       <c r="K850" s="3"/>
       <c r="L850" s="3"/>
     </row>
-    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -27745,7 +27745,7 @@
       <c r="K851" s="3"/>
       <c r="L851" s="3"/>
     </row>
-    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -27759,7 +27759,7 @@
       <c r="K852" s="3"/>
       <c r="L852" s="3"/>
     </row>
-    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -27773,7 +27773,7 @@
       <c r="K853" s="3"/>
       <c r="L853" s="3"/>
     </row>
-    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -27787,7 +27787,7 @@
       <c r="K854" s="3"/>
       <c r="L854" s="3"/>
     </row>
-    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -27801,7 +27801,7 @@
       <c r="K855" s="3"/>
       <c r="L855" s="3"/>
     </row>
-    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -27815,7 +27815,7 @@
       <c r="K856" s="3"/>
       <c r="L856" s="3"/>
     </row>
-    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -27829,7 +27829,7 @@
       <c r="K857" s="3"/>
       <c r="L857" s="3"/>
     </row>
-    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -27843,7 +27843,7 @@
       <c r="K858" s="3"/>
       <c r="L858" s="3"/>
     </row>
-    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -27857,7 +27857,7 @@
       <c r="K859" s="3"/>
       <c r="L859" s="3"/>
     </row>
-    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -27871,7 +27871,7 @@
       <c r="K860" s="3"/>
       <c r="L860" s="3"/>
     </row>
-    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -27885,7 +27885,7 @@
       <c r="K861" s="3"/>
       <c r="L861" s="3"/>
     </row>
-    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -27899,7 +27899,7 @@
       <c r="K862" s="3"/>
       <c r="L862" s="3"/>
     </row>
-    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -27913,7 +27913,7 @@
       <c r="K863" s="3"/>
       <c r="L863" s="3"/>
     </row>
-    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -27927,7 +27927,7 @@
       <c r="K864" s="3"/>
       <c r="L864" s="3"/>
     </row>
-    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -27941,7 +27941,7 @@
       <c r="K865" s="3"/>
       <c r="L865" s="3"/>
     </row>
-    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -27955,7 +27955,7 @@
       <c r="K866" s="3"/>
       <c r="L866" s="3"/>
     </row>
-    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -27969,7 +27969,7 @@
       <c r="K867" s="3"/>
       <c r="L867" s="3"/>
     </row>
-    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -27983,7 +27983,7 @@
       <c r="K868" s="3"/>
       <c r="L868" s="3"/>
     </row>
-    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -27997,7 +27997,7 @@
       <c r="K869" s="3"/>
       <c r="L869" s="3"/>
     </row>
-    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -28011,7 +28011,7 @@
       <c r="K870" s="3"/>
       <c r="L870" s="3"/>
     </row>
-    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -28025,7 +28025,7 @@
       <c r="K871" s="3"/>
       <c r="L871" s="3"/>
     </row>
-    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -28039,7 +28039,7 @@
       <c r="K872" s="3"/>
       <c r="L872" s="3"/>
     </row>
-    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -28053,7 +28053,7 @@
       <c r="K873" s="3"/>
       <c r="L873" s="3"/>
     </row>
-    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -28067,7 +28067,7 @@
       <c r="K874" s="3"/>
       <c r="L874" s="3"/>
     </row>
-    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -28081,7 +28081,7 @@
       <c r="K875" s="3"/>
       <c r="L875" s="3"/>
     </row>
-    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -28095,7 +28095,7 @@
       <c r="K876" s="3"/>
       <c r="L876" s="3"/>
     </row>
-    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -28109,7 +28109,7 @@
       <c r="K877" s="3"/>
       <c r="L877" s="3"/>
     </row>
-    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -28123,7 +28123,7 @@
       <c r="K878" s="3"/>
       <c r="L878" s="3"/>
     </row>
-    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -28137,7 +28137,7 @@
       <c r="K879" s="3"/>
       <c r="L879" s="3"/>
     </row>
-    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -28151,7 +28151,7 @@
       <c r="K880" s="3"/>
       <c r="L880" s="3"/>
     </row>
-    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -28165,7 +28165,7 @@
       <c r="K881" s="3"/>
       <c r="L881" s="3"/>
     </row>
-    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -28179,7 +28179,7 @@
       <c r="K882" s="3"/>
       <c r="L882" s="3"/>
     </row>
-    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -28193,7 +28193,7 @@
       <c r="K883" s="3"/>
       <c r="L883" s="3"/>
     </row>
-    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -28207,7 +28207,7 @@
       <c r="K884" s="3"/>
       <c r="L884" s="3"/>
     </row>
-    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -28221,7 +28221,7 @@
       <c r="K885" s="3"/>
       <c r="L885" s="3"/>
     </row>
-    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -28235,7 +28235,7 @@
       <c r="K886" s="3"/>
       <c r="L886" s="3"/>
     </row>
-    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -28249,7 +28249,7 @@
       <c r="K887" s="3"/>
       <c r="L887" s="3"/>
     </row>
-    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -28263,7 +28263,7 @@
       <c r="K888" s="3"/>
       <c r="L888" s="3"/>
     </row>
-    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -28277,7 +28277,7 @@
       <c r="K889" s="3"/>
       <c r="L889" s="3"/>
     </row>
-    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -28291,7 +28291,7 @@
       <c r="K890" s="3"/>
       <c r="L890" s="3"/>
     </row>
-    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -28305,7 +28305,7 @@
       <c r="K891" s="3"/>
       <c r="L891" s="3"/>
     </row>
-    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -28319,7 +28319,7 @@
       <c r="K892" s="3"/>
       <c r="L892" s="3"/>
     </row>
-    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -28333,7 +28333,7 @@
       <c r="K893" s="3"/>
       <c r="L893" s="3"/>
     </row>
-    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -28347,7 +28347,7 @@
       <c r="K894" s="3"/>
       <c r="L894" s="3"/>
     </row>
-    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -28361,7 +28361,7 @@
       <c r="K895" s="3"/>
       <c r="L895" s="3"/>
     </row>
-    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -28375,7 +28375,7 @@
       <c r="K896" s="3"/>
       <c r="L896" s="3"/>
     </row>
-    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -28389,7 +28389,7 @@
       <c r="K897" s="3"/>
       <c r="L897" s="3"/>
     </row>
-    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -28403,7 +28403,7 @@
       <c r="K898" s="3"/>
       <c r="L898" s="3"/>
     </row>
-    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -28417,7 +28417,7 @@
       <c r="K899" s="3"/>
       <c r="L899" s="3"/>
     </row>
-    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -28431,7 +28431,7 @@
       <c r="K900" s="3"/>
       <c r="L900" s="3"/>
     </row>
-    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -28445,7 +28445,7 @@
       <c r="K901" s="3"/>
       <c r="L901" s="3"/>
     </row>
-    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -28459,7 +28459,7 @@
       <c r="K902" s="3"/>
       <c r="L902" s="3"/>
     </row>
-    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -28473,7 +28473,7 @@
       <c r="K903" s="3"/>
       <c r="L903" s="3"/>
     </row>
-    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -28487,7 +28487,7 @@
       <c r="K904" s="3"/>
       <c r="L904" s="3"/>
     </row>
-    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -28501,7 +28501,7 @@
       <c r="K905" s="3"/>
       <c r="L905" s="3"/>
     </row>
-    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -28515,7 +28515,7 @@
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
     </row>
-    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -28529,7 +28529,7 @@
       <c r="K907" s="3"/>
       <c r="L907" s="3"/>
     </row>
-    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -28543,7 +28543,7 @@
       <c r="K908" s="3"/>
       <c r="L908" s="3"/>
     </row>
-    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -28557,7 +28557,7 @@
       <c r="K909" s="3"/>
       <c r="L909" s="3"/>
     </row>
-    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -28571,7 +28571,7 @@
       <c r="K910" s="3"/>
       <c r="L910" s="3"/>
     </row>
-    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -28585,7 +28585,7 @@
       <c r="K911" s="3"/>
       <c r="L911" s="3"/>
     </row>
-    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -28599,7 +28599,7 @@
       <c r="K912" s="3"/>
       <c r="L912" s="3"/>
     </row>
-    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -28613,7 +28613,7 @@
       <c r="K913" s="3"/>
       <c r="L913" s="3"/>
     </row>
-    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -28627,7 +28627,7 @@
       <c r="K914" s="3"/>
       <c r="L914" s="3"/>
     </row>
-    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -28641,7 +28641,7 @@
       <c r="K915" s="3"/>
       <c r="L915" s="3"/>
     </row>
-    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -28655,7 +28655,7 @@
       <c r="K916" s="3"/>
       <c r="L916" s="3"/>
     </row>
-    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -28669,7 +28669,7 @@
       <c r="K917" s="3"/>
       <c r="L917" s="3"/>
     </row>
-    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -28683,7 +28683,7 @@
       <c r="K918" s="3"/>
       <c r="L918" s="3"/>
     </row>
-    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -28697,7 +28697,7 @@
       <c r="K919" s="3"/>
       <c r="L919" s="3"/>
     </row>
-    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -28711,7 +28711,7 @@
       <c r="K920" s="3"/>
       <c r="L920" s="3"/>
     </row>
-    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -28725,7 +28725,7 @@
       <c r="K921" s="3"/>
       <c r="L921" s="3"/>
     </row>
-    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -28739,7 +28739,7 @@
       <c r="K922" s="3"/>
       <c r="L922" s="3"/>
     </row>
-    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -28753,7 +28753,7 @@
       <c r="K923" s="3"/>
       <c r="L923" s="3"/>
     </row>
-    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -28767,7 +28767,7 @@
       <c r="K924" s="3"/>
       <c r="L924" s="3"/>
     </row>
-    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -28781,7 +28781,7 @@
       <c r="K925" s="3"/>
       <c r="L925" s="3"/>
     </row>
-    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -28795,7 +28795,7 @@
       <c r="K926" s="3"/>
       <c r="L926" s="3"/>
     </row>
-    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -28809,7 +28809,7 @@
       <c r="K927" s="3"/>
       <c r="L927" s="3"/>
     </row>
-    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -28823,7 +28823,7 @@
       <c r="K928" s="3"/>
       <c r="L928" s="3"/>
     </row>
-    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -28837,7 +28837,7 @@
       <c r="K929" s="3"/>
       <c r="L929" s="3"/>
     </row>
-    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -28851,7 +28851,7 @@
       <c r="K930" s="3"/>
       <c r="L930" s="3"/>
     </row>
-    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -28865,7 +28865,7 @@
       <c r="K931" s="3"/>
       <c r="L931" s="3"/>
     </row>
-    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -28879,7 +28879,7 @@
       <c r="K932" s="3"/>
       <c r="L932" s="3"/>
     </row>
-    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -28893,7 +28893,7 @@
       <c r="K933" s="3"/>
       <c r="L933" s="3"/>
     </row>
-    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -28907,7 +28907,7 @@
       <c r="K934" s="3"/>
       <c r="L934" s="3"/>
     </row>
-    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -28921,7 +28921,7 @@
       <c r="K935" s="3"/>
       <c r="L935" s="3"/>
     </row>
-    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -28935,7 +28935,7 @@
       <c r="K936" s="3"/>
       <c r="L936" s="3"/>
     </row>
-    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -28949,7 +28949,7 @@
       <c r="K937" s="3"/>
       <c r="L937" s="3"/>
     </row>
-    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -28963,7 +28963,7 @@
       <c r="K938" s="3"/>
       <c r="L938" s="3"/>
     </row>
-    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -28977,7 +28977,7 @@
       <c r="K939" s="3"/>
       <c r="L939" s="3"/>
     </row>
-    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -28991,7 +28991,7 @@
       <c r="K940" s="3"/>
       <c r="L940" s="3"/>
     </row>
-    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -29005,7 +29005,7 @@
       <c r="K941" s="3"/>
       <c r="L941" s="3"/>
     </row>
-    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -29019,7 +29019,7 @@
       <c r="K942" s="3"/>
       <c r="L942" s="3"/>
     </row>
-    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -29033,7 +29033,7 @@
       <c r="K943" s="3"/>
       <c r="L943" s="3"/>
     </row>
-    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -29047,7 +29047,7 @@
       <c r="K944" s="3"/>
       <c r="L944" s="3"/>
     </row>
-    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -29061,7 +29061,7 @@
       <c r="K945" s="3"/>
       <c r="L945" s="3"/>
     </row>
-    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -29075,7 +29075,7 @@
       <c r="K946" s="3"/>
       <c r="L946" s="3"/>
     </row>
-    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -29089,7 +29089,7 @@
       <c r="K947" s="3"/>
       <c r="L947" s="3"/>
     </row>
-    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -29103,7 +29103,7 @@
       <c r="K948" s="3"/>
       <c r="L948" s="3"/>
     </row>
-    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -29117,7 +29117,7 @@
       <c r="K949" s="3"/>
       <c r="L949" s="3"/>
     </row>
-    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -29131,7 +29131,7 @@
       <c r="K950" s="3"/>
       <c r="L950" s="3"/>
     </row>
-    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -29145,7 +29145,7 @@
       <c r="K951" s="3"/>
       <c r="L951" s="3"/>
     </row>
-    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -29159,7 +29159,7 @@
       <c r="K952" s="3"/>
       <c r="L952" s="3"/>
     </row>
-    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -29173,7 +29173,7 @@
       <c r="K953" s="3"/>
       <c r="L953" s="3"/>
     </row>
-    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -29187,7 +29187,7 @@
       <c r="K954" s="3"/>
       <c r="L954" s="3"/>
     </row>
-    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -29201,7 +29201,7 @@
       <c r="K955" s="3"/>
       <c r="L955" s="3"/>
     </row>
-    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -29215,7 +29215,7 @@
       <c r="K956" s="3"/>
       <c r="L956" s="3"/>
     </row>
-    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -29229,7 +29229,7 @@
       <c r="K957" s="3"/>
       <c r="L957" s="3"/>
     </row>
-    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -29243,7 +29243,7 @@
       <c r="K958" s="3"/>
       <c r="L958" s="3"/>
     </row>
-    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -29257,7 +29257,7 @@
       <c r="K959" s="3"/>
       <c r="L959" s="3"/>
     </row>
-    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -29271,7 +29271,7 @@
       <c r="K960" s="3"/>
       <c r="L960" s="3"/>
     </row>
-    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -29285,7 +29285,7 @@
       <c r="K961" s="3"/>
       <c r="L961" s="3"/>
     </row>
-    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -29299,7 +29299,7 @@
       <c r="K962" s="3"/>
       <c r="L962" s="3"/>
     </row>
-    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -29313,7 +29313,7 @@
       <c r="K963" s="3"/>
       <c r="L963" s="3"/>
     </row>
-    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -29327,7 +29327,7 @@
       <c r="K964" s="3"/>
       <c r="L964" s="3"/>
     </row>
-    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -29341,7 +29341,7 @@
       <c r="K965" s="3"/>
       <c r="L965" s="3"/>
     </row>
-    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -29355,7 +29355,7 @@
       <c r="K966" s="3"/>
       <c r="L966" s="3"/>
     </row>
-    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -29369,7 +29369,7 @@
       <c r="K967" s="3"/>
       <c r="L967" s="3"/>
     </row>
-    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -29383,7 +29383,7 @@
       <c r="K968" s="3"/>
       <c r="L968" s="3"/>
     </row>
-    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -29397,7 +29397,7 @@
       <c r="K969" s="3"/>
       <c r="L969" s="3"/>
     </row>
-    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -29411,7 +29411,7 @@
       <c r="K970" s="3"/>
       <c r="L970" s="3"/>
     </row>
-    <row r="971" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -29425,7 +29425,7 @@
       <c r="K971" s="3"/>
       <c r="L971" s="3"/>
     </row>
-    <row r="972" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -29439,7 +29439,7 @@
       <c r="K972" s="3"/>
       <c r="L972" s="3"/>
     </row>
-    <row r="973" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -29453,7 +29453,7 @@
       <c r="K973" s="3"/>
       <c r="L973" s="3"/>
     </row>
-    <row r="974" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -29467,7 +29467,7 @@
       <c r="K974" s="3"/>
       <c r="L974" s="3"/>
     </row>
-    <row r="975" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -29481,7 +29481,7 @@
       <c r="K975" s="3"/>
       <c r="L975" s="3"/>
     </row>
-    <row r="976" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -29495,7 +29495,7 @@
       <c r="K976" s="3"/>
       <c r="L976" s="3"/>
     </row>
-    <row r="977" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -29509,7 +29509,7 @@
       <c r="K977" s="3"/>
       <c r="L977" s="3"/>
     </row>
-    <row r="978" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -29523,7 +29523,7 @@
       <c r="K978" s="3"/>
       <c r="L978" s="3"/>
     </row>
-    <row r="979" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -29537,7 +29537,7 @@
       <c r="K979" s="3"/>
       <c r="L979" s="3"/>
     </row>
-    <row r="980" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -29551,7 +29551,7 @@
       <c r="K980" s="3"/>
       <c r="L980" s="3"/>
     </row>
-    <row r="981" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -29565,7 +29565,7 @@
       <c r="K981" s="3"/>
       <c r="L981" s="3"/>
     </row>
-    <row r="982" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -29579,7 +29579,7 @@
       <c r="K982" s="3"/>
       <c r="L982" s="3"/>
     </row>
-    <row r="983" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -29593,7 +29593,7 @@
       <c r="K983" s="3"/>
       <c r="L983" s="3"/>
     </row>
-    <row r="984" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -29607,7 +29607,7 @@
       <c r="K984" s="3"/>
       <c r="L984" s="3"/>
     </row>
-    <row r="985" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -29621,7 +29621,7 @@
       <c r="K985" s="3"/>
       <c r="L985" s="3"/>
     </row>
-    <row r="986" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -29635,7 +29635,7 @@
       <c r="K986" s="3"/>
       <c r="L986" s="3"/>
     </row>
-    <row r="987" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -29649,7 +29649,7 @@
       <c r="K987" s="3"/>
       <c r="L987" s="3"/>
     </row>
-    <row r="988" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -29663,7 +29663,7 @@
       <c r="K988" s="3"/>
       <c r="L988" s="3"/>
     </row>
-    <row r="989" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -29677,7 +29677,7 @@
       <c r="K989" s="3"/>
       <c r="L989" s="3"/>
     </row>
-    <row r="990" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -29691,7 +29691,7 @@
       <c r="K990" s="3"/>
       <c r="L990" s="3"/>
     </row>
-    <row r="991" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -29705,7 +29705,7 @@
       <c r="K991" s="3"/>
       <c r="L991" s="3"/>
     </row>
-    <row r="992" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -29719,7 +29719,7 @@
       <c r="K992" s="3"/>
       <c r="L992" s="3"/>
     </row>
-    <row r="993" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -29733,7 +29733,7 @@
       <c r="K993" s="3"/>
       <c r="L993" s="3"/>
     </row>
-    <row r="994" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -29747,7 +29747,7 @@
       <c r="K994" s="3"/>
       <c r="L994" s="3"/>
     </row>
-    <row r="995" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -29761,7 +29761,7 @@
       <c r="K995" s="3"/>
       <c r="L995" s="3"/>
     </row>
-    <row r="996" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -29775,7 +29775,7 @@
       <c r="K996" s="3"/>
       <c r="L996" s="3"/>
     </row>
-    <row r="997" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -29789,7 +29789,7 @@
       <c r="K997" s="3"/>
       <c r="L997" s="3"/>
     </row>
-    <row r="998" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -29803,7 +29803,7 @@
       <c r="K998" s="3"/>
       <c r="L998" s="3"/>
     </row>
-    <row r="999" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -29817,7 +29817,7 @@
       <c r="K999" s="3"/>
       <c r="L999" s="3"/>
     </row>
-    <row r="1000" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -29831,7 +29831,7 @@
       <c r="K1000" s="3"/>
       <c r="L1000" s="3"/>
     </row>
-    <row r="1001" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -29858,16 +29858,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="26" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
@@ -29903,7 +29903,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -29917,7 +29917,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -29931,47 +29931,47 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -886,31 +886,31 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
@@ -5121,7 +5121,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14"/>
@@ -5135,7 +5135,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="14"/>
@@ -5149,7 +5149,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="14"/>
@@ -5163,7 +5163,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14"/>
@@ -5177,7 +5177,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="14"/>
@@ -5191,7 +5191,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
@@ -5205,7 +5205,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
@@ -15065,7 +15065,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29976,37 +29976,37 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>

--- a/doc/CS01/task10/Task10_scrum_v02.xlsx
+++ b/doc/CS01/task10/Task10_scrum_v02.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chef\git\ch.bfh.bti7081.s2017.blue\doc\CS01\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="6270" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19490" windowHeight="6270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -367,16 +371,10 @@
     <t>Review all code, help with fixes &amp; tests</t>
   </si>
   <si>
-    <t>Joel / Patrick</t>
-  </si>
-  <si>
     <t>Refactor Code, Connect with DB, Add unit tests</t>
   </si>
   <si>
     <t>Delete multiselect function</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>Refactor Code View, Presenter, Mode. Add unit tests, logging, comments.</t>
@@ -387,11 +385,14 @@
   <si>
     <t>3.10</t>
   </si>
+  <si>
+    <t>not realised</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
@@ -490,7 +491,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,15 +775,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -814,7 +815,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -822,7 +823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -830,7 +831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -838,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -846,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -854,7 +855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -862,55 +863,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
@@ -4844,23 +4845,23 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4904,7 +4905,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4948,7 +4949,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4968,13 +4969,13 @@
         <v>31</v>
       </c>
       <c r="G3" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4993,12 +4994,14 @@
       <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>32</v>
+      </c>
       <c r="H4" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5017,12 +5020,14 @@
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>33</v>
+      </c>
       <c r="H5" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5041,12 +5046,14 @@
       <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>15</v>
+      </c>
       <c r="H6" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5065,12 +5072,14 @@
       <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>15</v>
+      </c>
       <c r="H7" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5089,12 +5098,14 @@
       <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>45</v>
+      </c>
       <c r="H8" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -5104,10 +5115,13 @@
         <v>180</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <f>SUM(G2:G8)</f>
+        <v>185</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5121,7 +5135,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="14"/>
@@ -5135,7 +5149,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="14"/>
@@ -5149,7 +5163,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="14"/>
@@ -5163,7 +5177,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="14"/>
@@ -5177,7 +5191,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="14"/>
@@ -5191,7 +5205,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="14"/>
@@ -5205,7 +5219,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="14"/>
@@ -15064,28 +15078,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="26" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15137,7 +15151,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -15175,7 +15189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1.2</v>
       </c>
@@ -15213,7 +15227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1.3</v>
       </c>
@@ -15251,7 +15265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1.4</v>
       </c>
@@ -15289,7 +15303,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1.5</v>
       </c>
@@ -15327,7 +15341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1.6</v>
       </c>
@@ -15365,7 +15379,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>42917</v>
       </c>
@@ -15403,7 +15417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1.8</v>
       </c>
@@ -15439,7 +15453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -15453,7 +15467,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2.1</v>
       </c>
@@ -15489,7 +15503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -15525,7 +15539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -15563,7 +15577,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>2.4</v>
       </c>
@@ -15601,7 +15615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>2.5</v>
       </c>
@@ -15637,7 +15651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>2.6</v>
       </c>
@@ -15675,7 +15689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2.7</v>
       </c>
@@ -15711,7 +15725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2.8</v>
       </c>
@@ -15747,7 +15761,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2.9</v>
       </c>
@@ -15783,9 +15797,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -15819,7 +15833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>2.11</v>
       </c>
@@ -15855,7 +15869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2.12</v>
       </c>
@@ -15891,7 +15905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -15905,7 +15919,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>3.1</v>
       </c>
@@ -15920,7 +15934,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="14" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>88</v>
@@ -15935,13 +15949,13 @@
         <v>31</v>
       </c>
       <c r="K24" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3.2</v>
       </c>
@@ -15970,12 +15984,14 @@
       <c r="J25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>3.3</v>
       </c>
@@ -15986,7 +16002,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="14" t="s">
@@ -16004,12 +16020,14 @@
       <c r="J26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>3.4</v>
       </c>
@@ -16038,12 +16056,14 @@
       <c r="J27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>3.5</v>
       </c>
@@ -16072,12 +16092,14 @@
       <c r="J28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="3">
+        <v>9</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>3.6</v>
       </c>
@@ -16106,12 +16128,14 @@
       <c r="J29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>3.7</v>
       </c>
@@ -16140,12 +16164,14 @@
       <c r="J30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="3">
+        <v>9</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>3.8</v>
       </c>
@@ -16177,11 +16203,11 @@
       <c r="K31" s="3">
         <v>5</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>3.9</v>
       </c>
@@ -16213,13 +16239,13 @@
       <c r="K32" s="3">
         <v>4</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -16246,12 +16272,14 @@
       <c r="J33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="3">
+        <v>2</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>3.11</v>
       </c>
@@ -16262,7 +16290,7 @@
         <v>111</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="14" t="s">
@@ -16287,7 +16315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>3.12</v>
       </c>
@@ -16298,7 +16326,7 @@
         <v>42</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="14" t="s">
@@ -16316,12 +16344,14 @@
       <c r="J35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="3">
+        <v>5</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -16330,12 +16360,15 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3">
+        <f>SUM(I2:I35)</f>
+        <v>185</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -16349,7 +16382,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -16363,7 +16396,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -16377,7 +16410,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -16391,7 +16424,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -16405,7 +16438,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -16419,7 +16452,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -16433,7 +16466,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -16447,7 +16480,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -16461,7 +16494,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -16475,7 +16508,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -16489,7 +16522,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -16503,7 +16536,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -16517,7 +16550,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -16531,7 +16564,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -16545,7 +16578,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -16559,7 +16592,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -16573,7 +16606,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -16587,7 +16620,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -16601,7 +16634,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -16615,7 +16648,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -16629,7 +16662,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -16643,7 +16676,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -16657,7 +16690,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -16671,7 +16704,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -16685,7 +16718,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -16699,7 +16732,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -16713,7 +16746,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -16727,7 +16760,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -16741,7 +16774,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -16755,7 +16788,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -16769,7 +16802,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -16783,7 +16816,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -16797,7 +16830,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -16811,7 +16844,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -16825,7 +16858,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -16839,7 +16872,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -16853,7 +16886,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -16867,7 +16900,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -16881,7 +16914,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -16895,7 +16928,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -16909,7 +16942,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -16923,7 +16956,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -16937,7 +16970,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -16951,7 +16984,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -16965,7 +16998,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -16979,7 +17012,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -16993,7 +17026,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -17007,7 +17040,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -17021,7 +17054,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -17035,7 +17068,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -17049,7 +17082,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -17063,7 +17096,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -17077,7 +17110,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -17091,7 +17124,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -17105,7 +17138,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -17119,7 +17152,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -17133,7 +17166,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -17147,7 +17180,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -17161,7 +17194,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -17175,7 +17208,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -17189,7 +17222,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -17203,7 +17236,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -17217,7 +17250,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -17231,7 +17264,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -17245,7 +17278,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -17259,7 +17292,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -17273,7 +17306,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -17287,7 +17320,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -17301,7 +17334,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -17315,7 +17348,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -17329,7 +17362,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -17343,7 +17376,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -17357,7 +17390,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -17371,7 +17404,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -17385,7 +17418,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -17399,7 +17432,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -17413,7 +17446,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -17427,7 +17460,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -17441,7 +17474,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -17455,7 +17488,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -17469,7 +17502,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -17483,7 +17516,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -17497,7 +17530,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -17511,7 +17544,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -17525,7 +17558,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -17539,7 +17572,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -17553,7 +17586,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -17567,7 +17600,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -17581,7 +17614,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -17595,7 +17628,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -17609,7 +17642,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -17623,7 +17656,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -17637,7 +17670,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -17651,7 +17684,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -17665,7 +17698,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -17679,7 +17712,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -17693,7 +17726,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -17707,7 +17740,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -17721,7 +17754,7 @@
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -17735,7 +17768,7 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -17749,7 +17782,7 @@
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -17763,7 +17796,7 @@
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -17777,7 +17810,7 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -17791,7 +17824,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -17805,7 +17838,7 @@
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -17819,7 +17852,7 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -17833,7 +17866,7 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -17847,7 +17880,7 @@
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -17861,7 +17894,7 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -17875,7 +17908,7 @@
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -17889,7 +17922,7 @@
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -17903,7 +17936,7 @@
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -17917,7 +17950,7 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -17931,7 +17964,7 @@
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -17945,7 +17978,7 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
     </row>
-    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -17959,7 +17992,7 @@
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -17973,7 +18006,7 @@
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -17987,7 +18020,7 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -18001,7 +18034,7 @@
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -18015,7 +18048,7 @@
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -18029,7 +18062,7 @@
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -18043,7 +18076,7 @@
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
     </row>
-    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -18057,7 +18090,7 @@
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -18071,7 +18104,7 @@
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -18085,7 +18118,7 @@
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
     </row>
-    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -18099,7 +18132,7 @@
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
     </row>
-    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -18113,7 +18146,7 @@
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -18127,7 +18160,7 @@
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -18141,7 +18174,7 @@
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -18155,7 +18188,7 @@
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
     </row>
-    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -18169,7 +18202,7 @@
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
     </row>
-    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -18183,7 +18216,7 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -18197,7 +18230,7 @@
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -18211,7 +18244,7 @@
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -18225,7 +18258,7 @@
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -18239,7 +18272,7 @@
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -18253,7 +18286,7 @@
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -18267,7 +18300,7 @@
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -18281,7 +18314,7 @@
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -18295,7 +18328,7 @@
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -18309,7 +18342,7 @@
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -18323,7 +18356,7 @@
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -18337,7 +18370,7 @@
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -18351,7 +18384,7 @@
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -18365,7 +18398,7 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -18379,7 +18412,7 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
     </row>
-    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -18393,7 +18426,7 @@
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
     </row>
-    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -18407,7 +18440,7 @@
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
     </row>
-    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -18421,7 +18454,7 @@
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
     </row>
-    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -18435,7 +18468,7 @@
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
     </row>
-    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -18449,7 +18482,7 @@
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -18463,7 +18496,7 @@
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -18477,7 +18510,7 @@
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -18491,7 +18524,7 @@
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -18505,7 +18538,7 @@
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -18519,7 +18552,7 @@
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
     </row>
-    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -18533,7 +18566,7 @@
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
     </row>
-    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -18547,7 +18580,7 @@
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
     </row>
-    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -18561,7 +18594,7 @@
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
     </row>
-    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -18575,7 +18608,7 @@
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
     </row>
-    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -18589,7 +18622,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
     </row>
-    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -18603,7 +18636,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -18617,7 +18650,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -18631,7 +18664,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -18645,7 +18678,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -18659,7 +18692,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -18673,7 +18706,7 @@
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -18687,7 +18720,7 @@
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -18701,7 +18734,7 @@
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -18715,7 +18748,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -18729,7 +18762,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -18743,7 +18776,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -18757,7 +18790,7 @@
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -18771,7 +18804,7 @@
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -18785,7 +18818,7 @@
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -18799,7 +18832,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -18813,7 +18846,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -18827,7 +18860,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -18841,7 +18874,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -18855,7 +18888,7 @@
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -18869,7 +18902,7 @@
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -18883,7 +18916,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -18897,7 +18930,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -18911,7 +18944,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -18925,7 +18958,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -18939,7 +18972,7 @@
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -18953,7 +18986,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -18967,7 +19000,7 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -18981,7 +19014,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -18995,7 +19028,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -19009,7 +19042,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -19023,7 +19056,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -19037,7 +19070,7 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -19051,7 +19084,7 @@
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -19065,7 +19098,7 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -19079,7 +19112,7 @@
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -19093,7 +19126,7 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -19107,7 +19140,7 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -19121,7 +19154,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -19135,7 +19168,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -19149,7 +19182,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -19163,7 +19196,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -19177,7 +19210,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -19191,7 +19224,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -19205,7 +19238,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -19219,7 +19252,7 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -19233,7 +19266,7 @@
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -19247,7 +19280,7 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -19261,7 +19294,7 @@
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
     </row>
-    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -19275,7 +19308,7 @@
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
     </row>
-    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -19289,7 +19322,7 @@
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
     </row>
-    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -19303,7 +19336,7 @@
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -19317,7 +19350,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -19331,7 +19364,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -19345,7 +19378,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -19359,7 +19392,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -19373,7 +19406,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -19387,7 +19420,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -19401,7 +19434,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -19415,7 +19448,7 @@
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -19429,7 +19462,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -19443,7 +19476,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -19457,7 +19490,7 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -19471,7 +19504,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -19485,7 +19518,7 @@
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -19499,7 +19532,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -19513,7 +19546,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -19527,7 +19560,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -19541,7 +19574,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -19555,7 +19588,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -19569,7 +19602,7 @@
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -19583,7 +19616,7 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -19597,7 +19630,7 @@
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -19611,7 +19644,7 @@
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -19625,7 +19658,7 @@
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -19639,7 +19672,7 @@
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -19653,7 +19686,7 @@
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -19667,7 +19700,7 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -19681,7 +19714,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -19695,7 +19728,7 @@
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -19709,7 +19742,7 @@
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -19723,7 +19756,7 @@
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -19737,7 +19770,7 @@
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -19751,7 +19784,7 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -19765,7 +19798,7 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -19779,7 +19812,7 @@
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -19793,7 +19826,7 @@
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -19807,7 +19840,7 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -19821,7 +19854,7 @@
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -19835,7 +19868,7 @@
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -19849,7 +19882,7 @@
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -19863,7 +19896,7 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -19877,7 +19910,7 @@
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -19891,7 +19924,7 @@
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -19905,7 +19938,7 @@
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -19919,7 +19952,7 @@
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -19933,7 +19966,7 @@
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -19947,7 +19980,7 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -19961,7 +19994,7 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -19975,7 +20008,7 @@
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -19989,7 +20022,7 @@
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -20003,7 +20036,7 @@
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -20017,7 +20050,7 @@
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -20031,7 +20064,7 @@
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -20045,7 +20078,7 @@
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -20059,7 +20092,7 @@
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -20073,7 +20106,7 @@
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -20087,7 +20120,7 @@
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -20101,7 +20134,7 @@
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -20115,7 +20148,7 @@
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -20129,7 +20162,7 @@
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -20143,7 +20176,7 @@
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -20157,7 +20190,7 @@
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -20171,7 +20204,7 @@
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -20185,7 +20218,7 @@
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -20199,7 +20232,7 @@
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -20213,7 +20246,7 @@
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -20227,7 +20260,7 @@
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -20241,7 +20274,7 @@
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -20255,7 +20288,7 @@
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -20269,7 +20302,7 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -20283,7 +20316,7 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -20297,7 +20330,7 @@
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -20311,7 +20344,7 @@
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -20325,7 +20358,7 @@
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -20339,7 +20372,7 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -20353,7 +20386,7 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -20367,7 +20400,7 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -20381,7 +20414,7 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -20395,7 +20428,7 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -20409,7 +20442,7 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -20423,7 +20456,7 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -20437,7 +20470,7 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -20451,7 +20484,7 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -20465,7 +20498,7 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -20479,7 +20512,7 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -20493,7 +20526,7 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -20507,7 +20540,7 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -20521,7 +20554,7 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -20535,7 +20568,7 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -20549,7 +20582,7 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -20563,7 +20596,7 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -20577,7 +20610,7 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -20591,7 +20624,7 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -20605,7 +20638,7 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -20619,7 +20652,7 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -20633,7 +20666,7 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -20647,7 +20680,7 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -20661,7 +20694,7 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -20675,7 +20708,7 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -20689,7 +20722,7 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -20703,7 +20736,7 @@
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -20717,7 +20750,7 @@
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -20731,7 +20764,7 @@
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -20745,7 +20778,7 @@
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -20759,7 +20792,7 @@
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -20773,7 +20806,7 @@
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -20787,7 +20820,7 @@
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -20801,7 +20834,7 @@
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -20815,7 +20848,7 @@
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -20829,7 +20862,7 @@
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
     </row>
-    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -20843,7 +20876,7 @@
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -20857,7 +20890,7 @@
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -20871,7 +20904,7 @@
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -20885,7 +20918,7 @@
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -20899,7 +20932,7 @@
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -20913,7 +20946,7 @@
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -20927,7 +20960,7 @@
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
     </row>
-    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -20941,7 +20974,7 @@
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -20955,7 +20988,7 @@
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -20969,7 +21002,7 @@
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -20983,7 +21016,7 @@
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -20997,7 +21030,7 @@
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -21011,7 +21044,7 @@
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -21025,7 +21058,7 @@
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
     </row>
-    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -21039,7 +21072,7 @@
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -21053,7 +21086,7 @@
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -21067,7 +21100,7 @@
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -21081,7 +21114,7 @@
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -21095,7 +21128,7 @@
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -21109,7 +21142,7 @@
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -21123,7 +21156,7 @@
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
     </row>
-    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -21137,7 +21170,7 @@
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -21151,7 +21184,7 @@
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -21165,7 +21198,7 @@
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -21179,7 +21212,7 @@
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -21193,7 +21226,7 @@
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -21207,7 +21240,7 @@
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
     </row>
-    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -21221,7 +21254,7 @@
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -21235,7 +21268,7 @@
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -21249,7 +21282,7 @@
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -21263,7 +21296,7 @@
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -21277,7 +21310,7 @@
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -21291,7 +21324,7 @@
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -21305,7 +21338,7 @@
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -21319,7 +21352,7 @@
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -21333,7 +21366,7 @@
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
     </row>
-    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -21347,7 +21380,7 @@
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -21361,7 +21394,7 @@
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -21375,7 +21408,7 @@
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -21389,7 +21422,7 @@
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -21403,7 +21436,7 @@
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -21417,7 +21450,7 @@
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -21431,7 +21464,7 @@
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -21445,7 +21478,7 @@
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
     </row>
-    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -21459,7 +21492,7 @@
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -21473,7 +21506,7 @@
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -21487,7 +21520,7 @@
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -21501,7 +21534,7 @@
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -21515,7 +21548,7 @@
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -21529,7 +21562,7 @@
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -21543,7 +21576,7 @@
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -21557,7 +21590,7 @@
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
     </row>
-    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -21571,7 +21604,7 @@
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -21585,7 +21618,7 @@
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -21599,7 +21632,7 @@
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -21613,7 +21646,7 @@
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -21627,7 +21660,7 @@
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -21641,7 +21674,7 @@
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -21655,7 +21688,7 @@
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -21669,7 +21702,7 @@
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
     </row>
-    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -21683,7 +21716,7 @@
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -21697,7 +21730,7 @@
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -21711,7 +21744,7 @@
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -21725,7 +21758,7 @@
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -21739,7 +21772,7 @@
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -21753,7 +21786,7 @@
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -21767,7 +21800,7 @@
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
     </row>
-    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -21781,7 +21814,7 @@
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -21795,7 +21828,7 @@
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -21809,7 +21842,7 @@
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -21823,7 +21856,7 @@
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -21837,7 +21870,7 @@
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -21851,7 +21884,7 @@
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -21865,7 +21898,7 @@
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -21879,7 +21912,7 @@
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -21893,7 +21926,7 @@
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
     </row>
-    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -21907,7 +21940,7 @@
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -21921,7 +21954,7 @@
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -21935,7 +21968,7 @@
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -21949,7 +21982,7 @@
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -21963,7 +21996,7 @@
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -21977,7 +22010,7 @@
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
     </row>
-    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -21991,7 +22024,7 @@
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -22005,7 +22038,7 @@
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -22019,7 +22052,7 @@
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -22033,7 +22066,7 @@
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -22047,7 +22080,7 @@
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -22061,7 +22094,7 @@
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -22075,7 +22108,7 @@
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -22089,7 +22122,7 @@
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
     </row>
-    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -22103,7 +22136,7 @@
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -22117,7 +22150,7 @@
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -22131,7 +22164,7 @@
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -22145,7 +22178,7 @@
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -22159,7 +22192,7 @@
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -22173,7 +22206,7 @@
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -22187,7 +22220,7 @@
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -22201,7 +22234,7 @@
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -22215,7 +22248,7 @@
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
     </row>
-    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -22229,7 +22262,7 @@
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -22243,7 +22276,7 @@
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -22257,7 +22290,7 @@
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -22271,7 +22304,7 @@
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -22285,7 +22318,7 @@
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -22299,7 +22332,7 @@
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -22313,7 +22346,7 @@
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -22327,7 +22360,7 @@
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
     </row>
-    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -22341,7 +22374,7 @@
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -22355,7 +22388,7 @@
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -22369,7 +22402,7 @@
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -22383,7 +22416,7 @@
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -22397,7 +22430,7 @@
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -22411,7 +22444,7 @@
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -22425,7 +22458,7 @@
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -22439,7 +22472,7 @@
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -22453,7 +22486,7 @@
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -22467,7 +22500,7 @@
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -22481,7 +22514,7 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -22495,7 +22528,7 @@
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -22509,7 +22542,7 @@
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -22523,7 +22556,7 @@
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
     </row>
-    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -22537,7 +22570,7 @@
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -22551,7 +22584,7 @@
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -22565,7 +22598,7 @@
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -22579,7 +22612,7 @@
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -22593,7 +22626,7 @@
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -22607,7 +22640,7 @@
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
     </row>
-    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -22621,7 +22654,7 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -22635,7 +22668,7 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -22649,7 +22682,7 @@
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -22663,7 +22696,7 @@
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -22677,7 +22710,7 @@
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
     </row>
-    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -22691,7 +22724,7 @@
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -22705,7 +22738,7 @@
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -22719,7 +22752,7 @@
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -22733,7 +22766,7 @@
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -22747,7 +22780,7 @@
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -22761,7 +22794,7 @@
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -22775,7 +22808,7 @@
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
     </row>
-    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -22789,7 +22822,7 @@
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -22803,7 +22836,7 @@
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -22817,7 +22850,7 @@
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -22831,7 +22864,7 @@
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -22845,7 +22878,7 @@
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -22859,7 +22892,7 @@
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -22873,7 +22906,7 @@
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -22887,7 +22920,7 @@
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -22901,7 +22934,7 @@
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -22915,7 +22948,7 @@
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -22929,7 +22962,7 @@
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -22943,7 +22976,7 @@
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -22957,7 +22990,7 @@
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -22971,7 +23004,7 @@
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -22985,7 +23018,7 @@
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -22999,7 +23032,7 @@
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -23013,7 +23046,7 @@
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -23027,7 +23060,7 @@
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -23041,7 +23074,7 @@
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -23055,7 +23088,7 @@
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -23069,7 +23102,7 @@
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -23083,7 +23116,7 @@
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -23097,7 +23130,7 @@
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -23111,7 +23144,7 @@
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -23125,7 +23158,7 @@
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -23139,7 +23172,7 @@
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -23153,7 +23186,7 @@
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -23167,7 +23200,7 @@
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
     </row>
-    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -23181,7 +23214,7 @@
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
     </row>
-    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -23195,7 +23228,7 @@
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
     </row>
-    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -23209,7 +23242,7 @@
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
     </row>
-    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -23223,7 +23256,7 @@
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
-    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -23237,7 +23270,7 @@
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
     </row>
-    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -23251,7 +23284,7 @@
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
     </row>
-    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -23265,7 +23298,7 @@
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
     </row>
-    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -23279,7 +23312,7 @@
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
     </row>
-    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -23293,7 +23326,7 @@
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
     </row>
-    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -23307,7 +23340,7 @@
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
     </row>
-    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -23321,7 +23354,7 @@
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
     </row>
-    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -23335,7 +23368,7 @@
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
     </row>
-    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -23349,7 +23382,7 @@
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
     </row>
-    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -23363,7 +23396,7 @@
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
     </row>
-    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -23377,7 +23410,7 @@
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
     </row>
-    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -23391,7 +23424,7 @@
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
     </row>
-    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -23405,7 +23438,7 @@
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
     </row>
-    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -23419,7 +23452,7 @@
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
     </row>
-    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -23433,7 +23466,7 @@
       <c r="K543" s="3"/>
       <c r="L543" s="3"/>
     </row>
-    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -23447,7 +23480,7 @@
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
     </row>
-    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -23461,7 +23494,7 @@
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
     </row>
-    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -23475,7 +23508,7 @@
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
     </row>
-    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -23489,7 +23522,7 @@
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
     </row>
-    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -23503,7 +23536,7 @@
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
     </row>
-    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -23517,7 +23550,7 @@
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
     </row>
-    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -23531,7 +23564,7 @@
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -23545,7 +23578,7 @@
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -23559,7 +23592,7 @@
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
     </row>
-    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -23573,7 +23606,7 @@
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
     </row>
-    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -23587,7 +23620,7 @@
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
     </row>
-    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -23601,7 +23634,7 @@
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
     </row>
-    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -23615,7 +23648,7 @@
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
     </row>
-    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -23629,7 +23662,7 @@
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
     </row>
-    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -23643,7 +23676,7 @@
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
     </row>
-    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -23657,7 +23690,7 @@
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
     </row>
-    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -23671,7 +23704,7 @@
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
     </row>
-    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -23685,7 +23718,7 @@
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
     </row>
-    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -23699,7 +23732,7 @@
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
     </row>
-    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -23713,7 +23746,7 @@
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
     </row>
-    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -23727,7 +23760,7 @@
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
     </row>
-    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -23741,7 +23774,7 @@
       <c r="K565" s="3"/>
       <c r="L565" s="3"/>
     </row>
-    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -23755,7 +23788,7 @@
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
     </row>
-    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -23769,7 +23802,7 @@
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
     </row>
-    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -23783,7 +23816,7 @@
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
     </row>
-    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -23797,7 +23830,7 @@
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
     </row>
-    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -23811,7 +23844,7 @@
       <c r="K570" s="3"/>
       <c r="L570" s="3"/>
     </row>
-    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -23825,7 +23858,7 @@
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
     </row>
-    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -23839,7 +23872,7 @@
       <c r="K572" s="3"/>
       <c r="L572" s="3"/>
     </row>
-    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -23853,7 +23886,7 @@
       <c r="K573" s="3"/>
       <c r="L573" s="3"/>
     </row>
-    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -23867,7 +23900,7 @@
       <c r="K574" s="3"/>
       <c r="L574" s="3"/>
     </row>
-    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -23881,7 +23914,7 @@
       <c r="K575" s="3"/>
       <c r="L575" s="3"/>
     </row>
-    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -23895,7 +23928,7 @@
       <c r="K576" s="3"/>
       <c r="L576" s="3"/>
     </row>
-    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -23909,7 +23942,7 @@
       <c r="K577" s="3"/>
       <c r="L577" s="3"/>
     </row>
-    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -23923,7 +23956,7 @@
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
     </row>
-    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -23937,7 +23970,7 @@
       <c r="K579" s="3"/>
       <c r="L579" s="3"/>
     </row>
-    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -23951,7 +23984,7 @@
       <c r="K580" s="3"/>
       <c r="L580" s="3"/>
     </row>
-    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -23965,7 +23998,7 @@
       <c r="K581" s="3"/>
       <c r="L581" s="3"/>
     </row>
-    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -23979,7 +24012,7 @@
       <c r="K582" s="3"/>
       <c r="L582" s="3"/>
     </row>
-    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -23993,7 +24026,7 @@
       <c r="K583" s="3"/>
       <c r="L583" s="3"/>
     </row>
-    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -24007,7 +24040,7 @@
       <c r="K584" s="3"/>
       <c r="L584" s="3"/>
     </row>
-    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -24021,7 +24054,7 @@
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
     </row>
-    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -24035,7 +24068,7 @@
       <c r="K586" s="3"/>
       <c r="L586" s="3"/>
     </row>
-    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -24049,7 +24082,7 @@
       <c r="K587" s="3"/>
       <c r="L587" s="3"/>
     </row>
-    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -24063,7 +24096,7 @@
       <c r="K588" s="3"/>
       <c r="L588" s="3"/>
     </row>
-    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -24077,7 +24110,7 @@
       <c r="K589" s="3"/>
       <c r="L589" s="3"/>
     </row>
-    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -24091,7 +24124,7 @@
       <c r="K590" s="3"/>
       <c r="L590" s="3"/>
     </row>
-    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -24105,7 +24138,7 @@
       <c r="K591" s="3"/>
       <c r="L591" s="3"/>
     </row>
-    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -24119,7 +24152,7 @@
       <c r="K592" s="3"/>
       <c r="L592" s="3"/>
     </row>
-    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -24133,7 +24166,7 @@
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
     </row>
-    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -24147,7 +24180,7 @@
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
     </row>
-    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -24161,7 +24194,7 @@
       <c r="K595" s="3"/>
       <c r="L595" s="3"/>
     </row>
-    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -24175,7 +24208,7 @@
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
     </row>
-    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -24189,7 +24222,7 @@
       <c r="K597" s="3"/>
       <c r="L597" s="3"/>
     </row>
-    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -24203,7 +24236,7 @@
       <c r="K598" s="3"/>
       <c r="L598" s="3"/>
     </row>
-    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -24217,7 +24250,7 @@
       <c r="K599" s="3"/>
       <c r="L599" s="3"/>
     </row>
-    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -24231,7 +24264,7 @@
       <c r="K600" s="3"/>
       <c r="L600" s="3"/>
     </row>
-    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -24245,7 +24278,7 @@
       <c r="K601" s="3"/>
       <c r="L601" s="3"/>
     </row>
-    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -24259,7 +24292,7 @@
       <c r="K602" s="3"/>
       <c r="L602" s="3"/>
     </row>
-    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -24273,7 +24306,7 @@
       <c r="K603" s="3"/>
       <c r="L603" s="3"/>
     </row>
-    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -24287,7 +24320,7 @@
       <c r="K604" s="3"/>
       <c r="L604" s="3"/>
     </row>
-    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -24301,7 +24334,7 @@
       <c r="K605" s="3"/>
       <c r="L605" s="3"/>
     </row>
-    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -24315,7 +24348,7 @@
       <c r="K606" s="3"/>
       <c r="L606" s="3"/>
     </row>
-    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -24329,7 +24362,7 @@
       <c r="K607" s="3"/>
       <c r="L607" s="3"/>
     </row>
-    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -24343,7 +24376,7 @@
       <c r="K608" s="3"/>
       <c r="L608" s="3"/>
     </row>
-    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -24357,7 +24390,7 @@
       <c r="K609" s="3"/>
       <c r="L609" s="3"/>
     </row>
-    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -24371,7 +24404,7 @@
       <c r="K610" s="3"/>
       <c r="L610" s="3"/>
     </row>
-    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -24385,7 +24418,7 @@
       <c r="K611" s="3"/>
       <c r="L611" s="3"/>
     </row>
-    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -24399,7 +24432,7 @@
       <c r="K612" s="3"/>
       <c r="L612" s="3"/>
     </row>
-    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -24413,7 +24446,7 @@
       <c r="K613" s="3"/>
       <c r="L613" s="3"/>
     </row>
-    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -24427,7 +24460,7 @@
       <c r="K614" s="3"/>
       <c r="L614" s="3"/>
     </row>
-    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -24441,7 +24474,7 @@
       <c r="K615" s="3"/>
       <c r="L615" s="3"/>
     </row>
-    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -24455,7 +24488,7 @@
       <c r="K616" s="3"/>
       <c r="L616" s="3"/>
     </row>
-    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -24469,7 +24502,7 @@
       <c r="K617" s="3"/>
       <c r="L617" s="3"/>
     </row>
-    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -24483,7 +24516,7 @@
       <c r="K618" s="3"/>
       <c r="L618" s="3"/>
     </row>
-    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -24497,7 +24530,7 @@
       <c r="K619" s="3"/>
       <c r="L619" s="3"/>
     </row>
-    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -24511,7 +24544,7 @@
       <c r="K620" s="3"/>
       <c r="L620" s="3"/>
     </row>
-    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -24525,7 +24558,7 @@
       <c r="K621" s="3"/>
       <c r="L621" s="3"/>
     </row>
-    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -24539,7 +24572,7 @@
       <c r="K622" s="3"/>
       <c r="L622" s="3"/>
     </row>
-    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -24553,7 +24586,7 @@
       <c r="K623" s="3"/>
       <c r="L623" s="3"/>
     </row>
-    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -24567,7 +24600,7 @@
       <c r="K624" s="3"/>
       <c r="L624" s="3"/>
     </row>
-    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -24581,7 +24614,7 @@
       <c r="K625" s="3"/>
       <c r="L625" s="3"/>
     </row>
-    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -24595,7 +24628,7 @@
       <c r="K626" s="3"/>
       <c r="L626" s="3"/>
     </row>
-    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -24609,7 +24642,7 @@
       <c r="K627" s="3"/>
       <c r="L627" s="3"/>
     </row>
-    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -24623,7 +24656,7 @@
       <c r="K628" s="3"/>
       <c r="L628" s="3"/>
     </row>
-    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -24637,7 +24670,7 @@
       <c r="K629" s="3"/>
       <c r="L629" s="3"/>
     </row>
-    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -24651,7 +24684,7 @@
       <c r="K630" s="3"/>
       <c r="L630" s="3"/>
     </row>
-    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -24665,7 +24698,7 @@
       <c r="K631" s="3"/>
       <c r="L631" s="3"/>
     </row>
-    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -24679,7 +24712,7 @@
       <c r="K632" s="3"/>
       <c r="L632" s="3"/>
     </row>
-    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -24693,7 +24726,7 @@
       <c r="K633" s="3"/>
       <c r="L633" s="3"/>
     </row>
-    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -24707,7 +24740,7 @@
       <c r="K634" s="3"/>
       <c r="L634" s="3"/>
     </row>
-    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -24721,7 +24754,7 @@
       <c r="K635" s="3"/>
       <c r="L635" s="3"/>
     </row>
-    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -24735,7 +24768,7 @@
       <c r="K636" s="3"/>
       <c r="L636" s="3"/>
     </row>
-    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -24749,7 +24782,7 @@
       <c r="K637" s="3"/>
       <c r="L637" s="3"/>
     </row>
-    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -24763,7 +24796,7 @@
       <c r="K638" s="3"/>
       <c r="L638" s="3"/>
     </row>
-    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -24777,7 +24810,7 @@
       <c r="K639" s="3"/>
       <c r="L639" s="3"/>
     </row>
-    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -24791,7 +24824,7 @@
       <c r="K640" s="3"/>
       <c r="L640" s="3"/>
     </row>
-    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -24805,7 +24838,7 @@
       <c r="K641" s="3"/>
       <c r="L641" s="3"/>
     </row>
-    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -24819,7 +24852,7 @@
       <c r="K642" s="3"/>
       <c r="L642" s="3"/>
     </row>
-    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -24833,7 +24866,7 @@
       <c r="K643" s="3"/>
       <c r="L643" s="3"/>
     </row>
-    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -24847,7 +24880,7 @@
       <c r="K644" s="3"/>
       <c r="L644" s="3"/>
     </row>
-    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -24861,7 +24894,7 @@
       <c r="K645" s="3"/>
       <c r="L645" s="3"/>
     </row>
-    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -24875,7 +24908,7 @@
       <c r="K646" s="3"/>
       <c r="L646" s="3"/>
     </row>
-    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -24889,7 +24922,7 @@
       <c r="K647" s="3"/>
       <c r="L647" s="3"/>
     </row>
-    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -24903,7 +24936,7 @@
       <c r="K648" s="3"/>
       <c r="L648" s="3"/>
     </row>
-    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -24917,7 +24950,7 @@
       <c r="K649" s="3"/>
       <c r="L649" s="3"/>
     </row>
-    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -24931,7 +24964,7 @@
       <c r="K650" s="3"/>
       <c r="L650" s="3"/>
     </row>
-    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -24945,7 +24978,7 @@
       <c r="K651" s="3"/>
       <c r="L651" s="3"/>
     </row>
-    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -24959,7 +24992,7 @@
       <c r="K652" s="3"/>
       <c r="L652" s="3"/>
     </row>
-    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -24973,7 +25006,7 @@
       <c r="K653" s="3"/>
       <c r="L653" s="3"/>
     </row>
-    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -24987,7 +25020,7 @@
       <c r="K654" s="3"/>
       <c r="L654" s="3"/>
     </row>
-    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -25001,7 +25034,7 @@
       <c r="K655" s="3"/>
       <c r="L655" s="3"/>
     </row>
-    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -25015,7 +25048,7 @@
       <c r="K656" s="3"/>
       <c r="L656" s="3"/>
     </row>
-    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -25029,7 +25062,7 @@
       <c r="K657" s="3"/>
       <c r="L657" s="3"/>
     </row>
-    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -25043,7 +25076,7 @@
       <c r="K658" s="3"/>
       <c r="L658" s="3"/>
     </row>
-    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -25057,7 +25090,7 @@
       <c r="K659" s="3"/>
       <c r="L659" s="3"/>
     </row>
-    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -25071,7 +25104,7 @@
       <c r="K660" s="3"/>
       <c r="L660" s="3"/>
     </row>
-    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -25085,7 +25118,7 @@
       <c r="K661" s="3"/>
       <c r="L661" s="3"/>
     </row>
-    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -25099,7 +25132,7 @@
       <c r="K662" s="3"/>
       <c r="L662" s="3"/>
     </row>
-    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -25113,7 +25146,7 @@
       <c r="K663" s="3"/>
       <c r="L663" s="3"/>
     </row>
-    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -25127,7 +25160,7 @@
       <c r="K664" s="3"/>
       <c r="L664" s="3"/>
     </row>
-    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -25141,7 +25174,7 @@
       <c r="K665" s="3"/>
       <c r="L665" s="3"/>
     </row>
-    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -25155,7 +25188,7 @@
       <c r="K666" s="3"/>
       <c r="L666" s="3"/>
     </row>
-    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -25169,7 +25202,7 @@
       <c r="K667" s="3"/>
       <c r="L667" s="3"/>
     </row>
-    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -25183,7 +25216,7 @@
       <c r="K668" s="3"/>
       <c r="L668" s="3"/>
     </row>
-    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -25197,7 +25230,7 @@
       <c r="K669" s="3"/>
       <c r="L669" s="3"/>
     </row>
-    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -25211,7 +25244,7 @@
       <c r="K670" s="3"/>
       <c r="L670" s="3"/>
     </row>
-    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -25225,7 +25258,7 @@
       <c r="K671" s="3"/>
       <c r="L671" s="3"/>
     </row>
-    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -25239,7 +25272,7 @@
       <c r="K672" s="3"/>
       <c r="L672" s="3"/>
     </row>
-    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -25253,7 +25286,7 @@
       <c r="K673" s="3"/>
       <c r="L673" s="3"/>
     </row>
-    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -25267,7 +25300,7 @@
       <c r="K674" s="3"/>
       <c r="L674" s="3"/>
     </row>
-    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -25281,7 +25314,7 @@
       <c r="K675" s="3"/>
       <c r="L675" s="3"/>
     </row>
-    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -25295,7 +25328,7 @@
       <c r="K676" s="3"/>
       <c r="L676" s="3"/>
     </row>
-    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -25309,7 +25342,7 @@
       <c r="K677" s="3"/>
       <c r="L677" s="3"/>
     </row>
-    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -25323,7 +25356,7 @@
       <c r="K678" s="3"/>
       <c r="L678" s="3"/>
     </row>
-    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -25337,7 +25370,7 @@
       <c r="K679" s="3"/>
       <c r="L679" s="3"/>
     </row>
-    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -25351,7 +25384,7 @@
       <c r="K680" s="3"/>
       <c r="L680" s="3"/>
     </row>
-    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -25365,7 +25398,7 @@
       <c r="K681" s="3"/>
       <c r="L681" s="3"/>
     </row>
-    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -25379,7 +25412,7 @@
       <c r="K682" s="3"/>
       <c r="L682" s="3"/>
     </row>
-    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -25393,7 +25426,7 @@
       <c r="K683" s="3"/>
       <c r="L683" s="3"/>
     </row>
-    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -25407,7 +25440,7 @@
       <c r="K684" s="3"/>
       <c r="L684" s="3"/>
     </row>
-    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -25421,7 +25454,7 @@
       <c r="K685" s="3"/>
       <c r="L685" s="3"/>
     </row>
-    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -25435,7 +25468,7 @@
       <c r="K686" s="3"/>
       <c r="L686" s="3"/>
     </row>
-    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -25449,7 +25482,7 @@
       <c r="K687" s="3"/>
       <c r="L687" s="3"/>
     </row>
-    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -25463,7 +25496,7 @@
       <c r="K688" s="3"/>
       <c r="L688" s="3"/>
     </row>
-    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -25477,7 +25510,7 @@
       <c r="K689" s="3"/>
       <c r="L689" s="3"/>
     </row>
-    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -25491,7 +25524,7 @@
       <c r="K690" s="3"/>
       <c r="L690" s="3"/>
     </row>
-    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -25505,7 +25538,7 @@
       <c r="K691" s="3"/>
       <c r="L691" s="3"/>
     </row>
-    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -25519,7 +25552,7 @@
       <c r="K692" s="3"/>
       <c r="L692" s="3"/>
     </row>
-    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -25533,7 +25566,7 @@
       <c r="K693" s="3"/>
       <c r="L693" s="3"/>
     </row>
-    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -25547,7 +25580,7 @@
       <c r="K694" s="3"/>
       <c r="L694" s="3"/>
     </row>
-    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -25561,7 +25594,7 @@
       <c r="K695" s="3"/>
       <c r="L695" s="3"/>
     </row>
-    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -25575,7 +25608,7 @@
       <c r="K696" s="3"/>
       <c r="L696" s="3"/>
     </row>
-    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -25589,7 +25622,7 @@
       <c r="K697" s="3"/>
       <c r="L697" s="3"/>
     </row>
-    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -25603,7 +25636,7 @@
       <c r="K698" s="3"/>
       <c r="L698" s="3"/>
     </row>
-    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -25617,7 +25650,7 @@
       <c r="K699" s="3"/>
       <c r="L699" s="3"/>
     </row>
-    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -25631,7 +25664,7 @@
       <c r="K700" s="3"/>
       <c r="L700" s="3"/>
     </row>
-    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -25645,7 +25678,7 @@
       <c r="K701" s="3"/>
       <c r="L701" s="3"/>
     </row>
-    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -25659,7 +25692,7 @@
       <c r="K702" s="3"/>
       <c r="L702" s="3"/>
     </row>
-    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -25673,7 +25706,7 @@
       <c r="K703" s="3"/>
       <c r="L703" s="3"/>
     </row>
-    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -25687,7 +25720,7 @@
       <c r="K704" s="3"/>
       <c r="L704" s="3"/>
     </row>
-    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -25701,7 +25734,7 @@
       <c r="K705" s="3"/>
       <c r="L705" s="3"/>
     </row>
-    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -25715,7 +25748,7 @@
       <c r="K706" s="3"/>
       <c r="L706" s="3"/>
     </row>
-    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -25729,7 +25762,7 @@
       <c r="K707" s="3"/>
       <c r="L707" s="3"/>
     </row>
-    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -25743,7 +25776,7 @@
       <c r="K708" s="3"/>
       <c r="L708" s="3"/>
     </row>
-    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -25757,7 +25790,7 @@
       <c r="K709" s="3"/>
       <c r="L709" s="3"/>
     </row>
-    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -25771,7 +25804,7 @@
       <c r="K710" s="3"/>
       <c r="L710" s="3"/>
     </row>
-    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -25785,7 +25818,7 @@
       <c r="K711" s="3"/>
       <c r="L711" s="3"/>
     </row>
-    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -25799,7 +25832,7 @@
       <c r="K712" s="3"/>
       <c r="L712" s="3"/>
     </row>
-    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -25813,7 +25846,7 @@
       <c r="K713" s="3"/>
       <c r="L713" s="3"/>
     </row>
-    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -25827,7 +25860,7 @@
       <c r="K714" s="3"/>
       <c r="L714" s="3"/>
     </row>
-    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -25841,7 +25874,7 @@
       <c r="K715" s="3"/>
       <c r="L715" s="3"/>
     </row>
-    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -25855,7 +25888,7 @@
       <c r="K716" s="3"/>
       <c r="L716" s="3"/>
     </row>
-    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -25869,7 +25902,7 @@
       <c r="K717" s="3"/>
       <c r="L717" s="3"/>
     </row>
-    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -25883,7 +25916,7 @@
       <c r="K718" s="3"/>
       <c r="L718" s="3"/>
     </row>
-    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -25897,7 +25930,7 @@
       <c r="K719" s="3"/>
       <c r="L719" s="3"/>
     </row>
-    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -25911,7 +25944,7 @@
       <c r="K720" s="3"/>
       <c r="L720" s="3"/>
     </row>
-    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -25925,7 +25958,7 @@
       <c r="K721" s="3"/>
       <c r="L721" s="3"/>
     </row>
-    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -25939,7 +25972,7 @@
       <c r="K722" s="3"/>
       <c r="L722" s="3"/>
     </row>
-    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -25953,7 +25986,7 @@
       <c r="K723" s="3"/>
       <c r="L723" s="3"/>
     </row>
-    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -25967,7 +26000,7 @@
       <c r="K724" s="3"/>
       <c r="L724" s="3"/>
     </row>
-    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -25981,7 +26014,7 @@
       <c r="K725" s="3"/>
       <c r="L725" s="3"/>
     </row>
-    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -25995,7 +26028,7 @@
       <c r="K726" s="3"/>
       <c r="L726" s="3"/>
     </row>
-    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -26009,7 +26042,7 @@
       <c r="K727" s="3"/>
       <c r="L727" s="3"/>
     </row>
-    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -26023,7 +26056,7 @@
       <c r="K728" s="3"/>
       <c r="L728" s="3"/>
     </row>
-    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -26037,7 +26070,7 @@
       <c r="K729" s="3"/>
       <c r="L729" s="3"/>
     </row>
-    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -26051,7 +26084,7 @@
       <c r="K730" s="3"/>
       <c r="L730" s="3"/>
     </row>
-    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -26065,7 +26098,7 @@
       <c r="K731" s="3"/>
       <c r="L731" s="3"/>
     </row>
-    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -26079,7 +26112,7 @@
       <c r="K732" s="3"/>
       <c r="L732" s="3"/>
     </row>
-    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -26093,7 +26126,7 @@
       <c r="K733" s="3"/>
       <c r="L733" s="3"/>
     </row>
-    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -26107,7 +26140,7 @@
       <c r="K734" s="3"/>
       <c r="L734" s="3"/>
     </row>
-    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -26121,7 +26154,7 @@
       <c r="K735" s="3"/>
       <c r="L735" s="3"/>
     </row>
-    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -26135,7 +26168,7 @@
       <c r="K736" s="3"/>
       <c r="L736" s="3"/>
     </row>
-    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -26149,7 +26182,7 @@
       <c r="K737" s="3"/>
       <c r="L737" s="3"/>
     </row>
-    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -26163,7 +26196,7 @@
       <c r="K738" s="3"/>
       <c r="L738" s="3"/>
     </row>
-    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -26177,7 +26210,7 @@
       <c r="K739" s="3"/>
       <c r="L739" s="3"/>
     </row>
-    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -26191,7 +26224,7 @@
       <c r="K740" s="3"/>
       <c r="L740" s="3"/>
     </row>
-    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -26205,7 +26238,7 @@
       <c r="K741" s="3"/>
       <c r="L741" s="3"/>
     </row>
-    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -26219,7 +26252,7 @@
       <c r="K742" s="3"/>
       <c r="L742" s="3"/>
     </row>
-    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -26233,7 +26266,7 @@
       <c r="K743" s="3"/>
       <c r="L743" s="3"/>
     </row>
-    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -26247,7 +26280,7 @@
       <c r="K744" s="3"/>
       <c r="L744" s="3"/>
     </row>
-    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -26261,7 +26294,7 @@
       <c r="K745" s="3"/>
       <c r="L745" s="3"/>
     </row>
-    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -26275,7 +26308,7 @@
       <c r="K746" s="3"/>
       <c r="L746" s="3"/>
     </row>
-    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -26289,7 +26322,7 @@
       <c r="K747" s="3"/>
       <c r="L747" s="3"/>
     </row>
-    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -26303,7 +26336,7 @@
       <c r="K748" s="3"/>
       <c r="L748" s="3"/>
     </row>
-    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -26317,7 +26350,7 @@
       <c r="K749" s="3"/>
       <c r="L749" s="3"/>
     </row>
-    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -26331,7 +26364,7 @@
       <c r="K750" s="3"/>
       <c r="L750" s="3"/>
     </row>
-    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -26345,7 +26378,7 @@
       <c r="K751" s="3"/>
       <c r="L751" s="3"/>
     </row>
-    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -26359,7 +26392,7 @@
       <c r="K752" s="3"/>
       <c r="L752" s="3"/>
     </row>
-    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -26373,7 +26406,7 @@
       <c r="K753" s="3"/>
       <c r="L753" s="3"/>
     </row>
-    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -26387,7 +26420,7 @@
       <c r="K754" s="3"/>
       <c r="L754" s="3"/>
     </row>
-    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -26401,7 +26434,7 @@
       <c r="K755" s="3"/>
       <c r="L755" s="3"/>
     </row>
-    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -26415,7 +26448,7 @@
       <c r="K756" s="3"/>
       <c r="L756" s="3"/>
     </row>
-    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -26429,7 +26462,7 @@
       <c r="K757" s="3"/>
       <c r="L757" s="3"/>
     </row>
-    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -26443,7 +26476,7 @@
       <c r="K758" s="3"/>
       <c r="L758" s="3"/>
     </row>
-    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -26457,7 +26490,7 @@
       <c r="K759" s="3"/>
       <c r="L759" s="3"/>
     </row>
-    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -26471,7 +26504,7 @@
       <c r="K760" s="3"/>
       <c r="L760" s="3"/>
     </row>
-    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -26485,7 +26518,7 @@
       <c r="K761" s="3"/>
       <c r="L761" s="3"/>
     </row>
-    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -26499,7 +26532,7 @@
       <c r="K762" s="3"/>
       <c r="L762" s="3"/>
     </row>
-    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -26513,7 +26546,7 @@
       <c r="K763" s="3"/>
       <c r="L763" s="3"/>
     </row>
-    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -26527,7 +26560,7 @@
       <c r="K764" s="3"/>
       <c r="L764" s="3"/>
     </row>
-    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -26541,7 +26574,7 @@
       <c r="K765" s="3"/>
       <c r="L765" s="3"/>
     </row>
-    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -26555,7 +26588,7 @@
       <c r="K766" s="3"/>
       <c r="L766" s="3"/>
     </row>
-    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -26569,7 +26602,7 @@
       <c r="K767" s="3"/>
       <c r="L767" s="3"/>
     </row>
-    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -26583,7 +26616,7 @@
       <c r="K768" s="3"/>
       <c r="L768" s="3"/>
     </row>
-    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -26597,7 +26630,7 @@
       <c r="K769" s="3"/>
       <c r="L769" s="3"/>
     </row>
-    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -26611,7 +26644,7 @@
       <c r="K770" s="3"/>
       <c r="L770" s="3"/>
     </row>
-    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -26625,7 +26658,7 @@
       <c r="K771" s="3"/>
       <c r="L771" s="3"/>
     </row>
-    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -26639,7 +26672,7 @@
       <c r="K772" s="3"/>
       <c r="L772" s="3"/>
     </row>
-    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -26653,7 +26686,7 @@
       <c r="K773" s="3"/>
       <c r="L773" s="3"/>
     </row>
-    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -26667,7 +26700,7 @@
       <c r="K774" s="3"/>
       <c r="L774" s="3"/>
     </row>
-    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -26681,7 +26714,7 @@
       <c r="K775" s="3"/>
       <c r="L775" s="3"/>
     </row>
-    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -26695,7 +26728,7 @@
       <c r="K776" s="3"/>
       <c r="L776" s="3"/>
     </row>
-    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -26709,7 +26742,7 @@
       <c r="K777" s="3"/>
       <c r="L777" s="3"/>
     </row>
-    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -26723,7 +26756,7 @@
       <c r="K778" s="3"/>
       <c r="L778" s="3"/>
     </row>
-    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -26737,7 +26770,7 @@
       <c r="K779" s="3"/>
       <c r="L779" s="3"/>
     </row>
-    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -26751,7 +26784,7 @@
       <c r="K780" s="3"/>
       <c r="L780" s="3"/>
     </row>
-    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -26765,7 +26798,7 @@
       <c r="K781" s="3"/>
       <c r="L781" s="3"/>
     </row>
-    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -26779,7 +26812,7 @@
       <c r="K782" s="3"/>
       <c r="L782" s="3"/>
     </row>
-    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -26793,7 +26826,7 @@
       <c r="K783" s="3"/>
       <c r="L783" s="3"/>
     </row>
-    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -26807,7 +26840,7 @@
       <c r="K784" s="3"/>
       <c r="L784" s="3"/>
     </row>
-    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -26821,7 +26854,7 @@
       <c r="K785" s="3"/>
       <c r="L785" s="3"/>
     </row>
-    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -26835,7 +26868,7 @@
       <c r="K786" s="3"/>
       <c r="L786" s="3"/>
     </row>
-    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -26849,7 +26882,7 @@
       <c r="K787" s="3"/>
       <c r="L787" s="3"/>
     </row>
-    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -26863,7 +26896,7 @@
       <c r="K788" s="3"/>
       <c r="L788" s="3"/>
     </row>
-    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -26877,7 +26910,7 @@
       <c r="K789" s="3"/>
       <c r="L789" s="3"/>
     </row>
-    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -26891,7 +26924,7 @@
       <c r="K790" s="3"/>
       <c r="L790" s="3"/>
     </row>
-    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -26905,7 +26938,7 @@
       <c r="K791" s="3"/>
       <c r="L791" s="3"/>
     </row>
-    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -26919,7 +26952,7 @@
       <c r="K792" s="3"/>
       <c r="L792" s="3"/>
     </row>
-    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -26933,7 +26966,7 @@
       <c r="K793" s="3"/>
       <c r="L793" s="3"/>
     </row>
-    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -26947,7 +26980,7 @@
       <c r="K794" s="3"/>
       <c r="L794" s="3"/>
     </row>
-    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -26961,7 +26994,7 @@
       <c r="K795" s="3"/>
       <c r="L795" s="3"/>
     </row>
-    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -26975,7 +27008,7 @@
       <c r="K796" s="3"/>
       <c r="L796" s="3"/>
     </row>
-    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -26989,7 +27022,7 @@
       <c r="K797" s="3"/>
       <c r="L797" s="3"/>
     </row>
-    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -27003,7 +27036,7 @@
       <c r="K798" s="3"/>
       <c r="L798" s="3"/>
     </row>
-    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -27017,7 +27050,7 @@
       <c r="K799" s="3"/>
       <c r="L799" s="3"/>
     </row>
-    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -27031,7 +27064,7 @@
       <c r="K800" s="3"/>
       <c r="L800" s="3"/>
     </row>
-    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -27045,7 +27078,7 @@
       <c r="K801" s="3"/>
       <c r="L801" s="3"/>
     </row>
-    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -27059,7 +27092,7 @@
       <c r="K802" s="3"/>
       <c r="L802" s="3"/>
     </row>
-    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -27073,7 +27106,7 @@
       <c r="K803" s="3"/>
       <c r="L803" s="3"/>
     </row>
-    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -27087,7 +27120,7 @@
       <c r="K804" s="3"/>
       <c r="L804" s="3"/>
     </row>
-    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -27101,7 +27134,7 @@
       <c r="K805" s="3"/>
       <c r="L805" s="3"/>
     </row>
-    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -27115,7 +27148,7 @@
       <c r="K806" s="3"/>
       <c r="L806" s="3"/>
     </row>
-    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -27129,7 +27162,7 @@
       <c r="K807" s="3"/>
       <c r="L807" s="3"/>
     </row>
-    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -27143,7 +27176,7 @@
       <c r="K808" s="3"/>
       <c r="L808" s="3"/>
     </row>
-    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -27157,7 +27190,7 @@
       <c r="K809" s="3"/>
       <c r="L809" s="3"/>
     </row>
-    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -27171,7 +27204,7 @@
       <c r="K810" s="3"/>
       <c r="L810" s="3"/>
     </row>
-    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -27185,7 +27218,7 @@
       <c r="K811" s="3"/>
       <c r="L811" s="3"/>
     </row>
-    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -27199,7 +27232,7 @@
       <c r="K812" s="3"/>
       <c r="L812" s="3"/>
     </row>
-    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -27213,7 +27246,7 @@
       <c r="K813" s="3"/>
       <c r="L813" s="3"/>
     </row>
-    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -27227,7 +27260,7 @@
       <c r="K814" s="3"/>
       <c r="L814" s="3"/>
     </row>
-    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -27241,7 +27274,7 @@
       <c r="K815" s="3"/>
       <c r="L815" s="3"/>
     </row>
-    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -27255,7 +27288,7 @@
       <c r="K816" s="3"/>
       <c r="L816" s="3"/>
     </row>
-    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -27269,7 +27302,7 @@
       <c r="K817" s="3"/>
       <c r="L817" s="3"/>
     </row>
-    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -27283,7 +27316,7 @@
       <c r="K818" s="3"/>
       <c r="L818" s="3"/>
     </row>
-    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -27297,7 +27330,7 @@
       <c r="K819" s="3"/>
       <c r="L819" s="3"/>
     </row>
-    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -27311,7 +27344,7 @@
       <c r="K820" s="3"/>
       <c r="L820" s="3"/>
     </row>
-    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -27325,7 +27358,7 @@
       <c r="K821" s="3"/>
       <c r="L821" s="3"/>
     </row>
-    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -27339,7 +27372,7 @@
       <c r="K822" s="3"/>
       <c r="L822" s="3"/>
     </row>
-    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -27353,7 +27386,7 @@
       <c r="K823" s="3"/>
       <c r="L823" s="3"/>
     </row>
-    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -27367,7 +27400,7 @@
       <c r="K824" s="3"/>
       <c r="L824" s="3"/>
     </row>
-    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -27381,7 +27414,7 @@
       <c r="K825" s="3"/>
       <c r="L825" s="3"/>
     </row>
-    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -27395,7 +27428,7 @@
       <c r="K826" s="3"/>
       <c r="L826" s="3"/>
     </row>
-    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -27409,7 +27442,7 @@
       <c r="K827" s="3"/>
       <c r="L827" s="3"/>
     </row>
-    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -27423,7 +27456,7 @@
       <c r="K828" s="3"/>
       <c r="L828" s="3"/>
     </row>
-    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -27437,7 +27470,7 @@
       <c r="K829" s="3"/>
       <c r="L829" s="3"/>
     </row>
-    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -27451,7 +27484,7 @@
       <c r="K830" s="3"/>
       <c r="L830" s="3"/>
     </row>
-    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -27465,7 +27498,7 @@
       <c r="K831" s="3"/>
       <c r="L831" s="3"/>
     </row>
-    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -27479,7 +27512,7 @@
       <c r="K832" s="3"/>
       <c r="L832" s="3"/>
     </row>
-    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -27493,7 +27526,7 @@
       <c r="K833" s="3"/>
       <c r="L833" s="3"/>
     </row>
-    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -27507,7 +27540,7 @@
       <c r="K834" s="3"/>
       <c r="L834" s="3"/>
     </row>
-    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -27521,7 +27554,7 @@
       <c r="K835" s="3"/>
       <c r="L835" s="3"/>
     </row>
-    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -27535,7 +27568,7 @@
       <c r="K836" s="3"/>
       <c r="L836" s="3"/>
     </row>
-    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -27549,7 +27582,7 @@
       <c r="K837" s="3"/>
       <c r="L837" s="3"/>
     </row>
-    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -27563,7 +27596,7 @@
       <c r="K838" s="3"/>
       <c r="L838" s="3"/>
     </row>
-    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -27577,7 +27610,7 @@
       <c r="K839" s="3"/>
       <c r="L839" s="3"/>
     </row>
-    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -27591,7 +27624,7 @@
       <c r="K840" s="3"/>
       <c r="L840" s="3"/>
     </row>
-    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -27605,7 +27638,7 @@
       <c r="K841" s="3"/>
       <c r="L841" s="3"/>
     </row>
-    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -27619,7 +27652,7 @@
       <c r="K842" s="3"/>
       <c r="L842" s="3"/>
     </row>
-    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -27633,7 +27666,7 @@
       <c r="K843" s="3"/>
       <c r="L843" s="3"/>
     </row>
-    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -27647,7 +27680,7 @@
       <c r="K844" s="3"/>
       <c r="L844" s="3"/>
     </row>
-    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -27661,7 +27694,7 @@
       <c r="K845" s="3"/>
       <c r="L845" s="3"/>
     </row>
-    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -27675,7 +27708,7 @@
       <c r="K846" s="3"/>
       <c r="L846" s="3"/>
     </row>
-    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -27689,7 +27722,7 @@
       <c r="K847" s="3"/>
       <c r="L847" s="3"/>
     </row>
-    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -27703,7 +27736,7 @@
       <c r="K848" s="3"/>
       <c r="L848" s="3"/>
     </row>
-    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -27717,7 +27750,7 @@
       <c r="K849" s="3"/>
       <c r="L849" s="3"/>
     </row>
-    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -27731,7 +27764,7 @@
       <c r="K850" s="3"/>
       <c r="L850" s="3"/>
     </row>
-    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -27745,7 +27778,7 @@
       <c r="K851" s="3"/>
       <c r="L851" s="3"/>
     </row>
-    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -27759,7 +27792,7 @@
       <c r="K852" s="3"/>
       <c r="L852" s="3"/>
     </row>
-    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -27773,7 +27806,7 @@
       <c r="K853" s="3"/>
       <c r="L853" s="3"/>
     </row>
-    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -27787,7 +27820,7 @@
       <c r="K854" s="3"/>
       <c r="L854" s="3"/>
     </row>
-    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -27801,7 +27834,7 @@
       <c r="K855" s="3"/>
       <c r="L855" s="3"/>
     </row>
-    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -27815,7 +27848,7 @@
       <c r="K856" s="3"/>
       <c r="L856" s="3"/>
     </row>
-    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -27829,7 +27862,7 @@
       <c r="K857" s="3"/>
       <c r="L857" s="3"/>
     </row>
-    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -27843,7 +27876,7 @@
       <c r="K858" s="3"/>
       <c r="L858" s="3"/>
     </row>
-    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -27857,7 +27890,7 @@
       <c r="K859" s="3"/>
       <c r="L859" s="3"/>
     </row>
-    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -27871,7 +27904,7 @@
       <c r="K860" s="3"/>
       <c r="L860" s="3"/>
     </row>
-    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -27885,7 +27918,7 @@
       <c r="K861" s="3"/>
       <c r="L861" s="3"/>
     </row>
-    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -27899,7 +27932,7 @@
       <c r="K862" s="3"/>
       <c r="L862" s="3"/>
     </row>
-    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -27913,7 +27946,7 @@
       <c r="K863" s="3"/>
       <c r="L863" s="3"/>
     </row>
-    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -27927,7 +27960,7 @@
       <c r="K864" s="3"/>
       <c r="L864" s="3"/>
     </row>
-    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -27941,7 +27974,7 @@
       <c r="K865" s="3"/>
       <c r="L865" s="3"/>
     </row>
-    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -27955,7 +27988,7 @@
       <c r="K866" s="3"/>
       <c r="L866" s="3"/>
     </row>
-    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -27969,7 +28002,7 @@
       <c r="K867" s="3"/>
       <c r="L867" s="3"/>
     </row>
-    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -27983,7 +28016,7 @@
       <c r="K868" s="3"/>
       <c r="L868" s="3"/>
     </row>
-    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -27997,7 +28030,7 @@
       <c r="K869" s="3"/>
       <c r="L869" s="3"/>
     </row>
-    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -28011,7 +28044,7 @@
       <c r="K870" s="3"/>
       <c r="L870" s="3"/>
     </row>
-    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -28025,7 +28058,7 @@
       <c r="K871" s="3"/>
       <c r="L871" s="3"/>
     </row>
-    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -28039,7 +28072,7 @@
       <c r="K872" s="3"/>
       <c r="L872" s="3"/>
     </row>
-    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -28053,7 +28086,7 @@
       <c r="K873" s="3"/>
       <c r="L873" s="3"/>
     </row>
-    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -28067,7 +28100,7 @@
       <c r="K874" s="3"/>
       <c r="L874" s="3"/>
     </row>
-    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -28081,7 +28114,7 @@
       <c r="K875" s="3"/>
       <c r="L875" s="3"/>
     </row>
-    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -28095,7 +28128,7 @@
       <c r="K876" s="3"/>
       <c r="L876" s="3"/>
     </row>
-    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -28109,7 +28142,7 @@
       <c r="K877" s="3"/>
       <c r="L877" s="3"/>
     </row>
-    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -28123,7 +28156,7 @@
       <c r="K878" s="3"/>
       <c r="L878" s="3"/>
     </row>
-    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -28137,7 +28170,7 @@
       <c r="K879" s="3"/>
       <c r="L879" s="3"/>
     </row>
-    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -28151,7 +28184,7 @@
       <c r="K880" s="3"/>
       <c r="L880" s="3"/>
     </row>
-    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -28165,7 +28198,7 @@
       <c r="K881" s="3"/>
       <c r="L881" s="3"/>
     </row>
-    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -28179,7 +28212,7 @@
       <c r="K882" s="3"/>
       <c r="L882" s="3"/>
     </row>
-    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -28193,7 +28226,7 @@
       <c r="K883" s="3"/>
       <c r="L883" s="3"/>
     </row>
-    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -28207,7 +28240,7 @@
       <c r="K884" s="3"/>
       <c r="L884" s="3"/>
     </row>
-    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -28221,7 +28254,7 @@
       <c r="K885" s="3"/>
       <c r="L885" s="3"/>
     </row>
-    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -28235,7 +28268,7 @@
       <c r="K886" s="3"/>
       <c r="L886" s="3"/>
     </row>
-    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -28249,7 +28282,7 @@
       <c r="K887" s="3"/>
       <c r="L887" s="3"/>
     </row>
-    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -28263,7 +28296,7 @@
       <c r="K888" s="3"/>
       <c r="L888" s="3"/>
     </row>
-    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -28277,7 +28310,7 @@
       <c r="K889" s="3"/>
       <c r="L889" s="3"/>
     </row>
-    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -28291,7 +28324,7 @@
       <c r="K890" s="3"/>
       <c r="L890" s="3"/>
     </row>
-    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -28305,7 +28338,7 @@
       <c r="K891" s="3"/>
       <c r="L891" s="3"/>
     </row>
-    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -28319,7 +28352,7 @@
       <c r="K892" s="3"/>
       <c r="L892" s="3"/>
     </row>
-    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -28333,7 +28366,7 @@
       <c r="K893" s="3"/>
       <c r="L893" s="3"/>
     </row>
-    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -28347,7 +28380,7 @@
       <c r="K894" s="3"/>
       <c r="L894" s="3"/>
     </row>
-    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -28361,7 +28394,7 @@
       <c r="K895" s="3"/>
       <c r="L895" s="3"/>
     </row>
-    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -28375,7 +28408,7 @@
       <c r="K896" s="3"/>
       <c r="L896" s="3"/>
     </row>
-    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -28389,7 +28422,7 @@
       <c r="K897" s="3"/>
       <c r="L897" s="3"/>
     </row>
-    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -28403,7 +28436,7 @@
       <c r="K898" s="3"/>
       <c r="L898" s="3"/>
     </row>
-    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -28417,7 +28450,7 @@
       <c r="K899" s="3"/>
       <c r="L899" s="3"/>
     </row>
-    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -28431,7 +28464,7 @@
       <c r="K900" s="3"/>
       <c r="L900" s="3"/>
     </row>
-    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -28445,7 +28478,7 @@
       <c r="K901" s="3"/>
       <c r="L901" s="3"/>
     </row>
-    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -28459,7 +28492,7 @@
       <c r="K902" s="3"/>
       <c r="L902" s="3"/>
     </row>
-    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -28473,7 +28506,7 @@
       <c r="K903" s="3"/>
       <c r="L903" s="3"/>
     </row>
-    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -28487,7 +28520,7 @@
       <c r="K904" s="3"/>
       <c r="L904" s="3"/>
     </row>
-    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -28501,7 +28534,7 @@
       <c r="K905" s="3"/>
       <c r="L905" s="3"/>
     </row>
-    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -28515,7 +28548,7 @@
       <c r="K906" s="3"/>
       <c r="L906" s="3"/>
     </row>
-    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -28529,7 +28562,7 @@
       <c r="K907" s="3"/>
       <c r="L907" s="3"/>
     </row>
-    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -28543,7 +28576,7 @@
       <c r="K908" s="3"/>
       <c r="L908" s="3"/>
     </row>
-    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -28557,7 +28590,7 @@
       <c r="K909" s="3"/>
       <c r="L909" s="3"/>
     </row>
-    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -28571,7 +28604,7 @@
       <c r="K910" s="3"/>
       <c r="L910" s="3"/>
     </row>
-    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -28585,7 +28618,7 @@
       <c r="K911" s="3"/>
       <c r="L911" s="3"/>
     </row>
-    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -28599,7 +28632,7 @@
       <c r="K912" s="3"/>
       <c r="L912" s="3"/>
     </row>
-    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -28613,7 +28646,7 @@
       <c r="K913" s="3"/>
       <c r="L913" s="3"/>
     </row>
-    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -28627,7 +28660,7 @@
       <c r="K914" s="3"/>
       <c r="L914" s="3"/>
     </row>
-    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -28641,7 +28674,7 @@
       <c r="K915" s="3"/>
       <c r="L915" s="3"/>
     </row>
-    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -28655,7 +28688,7 @@
       <c r="K916" s="3"/>
       <c r="L916" s="3"/>
     </row>
-    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -28669,7 +28702,7 @@
       <c r="K917" s="3"/>
       <c r="L917" s="3"/>
     </row>
-    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -28683,7 +28716,7 @@
       <c r="K918" s="3"/>
       <c r="L918" s="3"/>
     </row>
-    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -28697,7 +28730,7 @@
       <c r="K919" s="3"/>
       <c r="L919" s="3"/>
     </row>
-    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -28711,7 +28744,7 @@
       <c r="K920" s="3"/>
       <c r="L920" s="3"/>
     </row>
-    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -28725,7 +28758,7 @@
       <c r="K921" s="3"/>
       <c r="L921" s="3"/>
     </row>
-    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -28739,7 +28772,7 @@
       <c r="K922" s="3"/>
       <c r="L922" s="3"/>
     </row>
-    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -28753,7 +28786,7 @@
       <c r="K923" s="3"/>
       <c r="L923" s="3"/>
     </row>
-    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -28767,7 +28800,7 @@
       <c r="K924" s="3"/>
       <c r="L924" s="3"/>
     </row>
-    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -28781,7 +28814,7 @@
       <c r="K925" s="3"/>
       <c r="L925" s="3"/>
     </row>
-    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -28795,7 +28828,7 @@
       <c r="K926" s="3"/>
       <c r="L926" s="3"/>
     </row>
-    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -28809,7 +28842,7 @@
       <c r="K927" s="3"/>
       <c r="L927" s="3"/>
     </row>
-    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -28823,7 +28856,7 @@
       <c r="K928" s="3"/>
       <c r="L928" s="3"/>
     </row>
-    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -28837,7 +28870,7 @@
       <c r="K929" s="3"/>
       <c r="L929" s="3"/>
     </row>
-    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -28851,7 +28884,7 @@
       <c r="K930" s="3"/>
       <c r="L930" s="3"/>
     </row>
-    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -28865,7 +28898,7 @@
       <c r="K931" s="3"/>
       <c r="L931" s="3"/>
     </row>
-    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -28879,7 +28912,7 @@
       <c r="K932" s="3"/>
       <c r="L932" s="3"/>
     </row>
-    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -28893,7 +28926,7 @@
       <c r="K933" s="3"/>
       <c r="L933" s="3"/>
     </row>
-    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -28907,7 +28940,7 @@
       <c r="K934" s="3"/>
       <c r="L934" s="3"/>
     </row>
-    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -28921,7 +28954,7 @@
       <c r="K935" s="3"/>
       <c r="L935" s="3"/>
     </row>
-    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -28935,7 +28968,7 @@
       <c r="K936" s="3"/>
       <c r="L936" s="3"/>
     </row>
-    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -28949,7 +28982,7 @@
       <c r="K937" s="3"/>
       <c r="L937" s="3"/>
     </row>
-    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -28963,7 +28996,7 @@
       <c r="K938" s="3"/>
       <c r="L938" s="3"/>
     </row>
-    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -28977,7 +29010,7 @@
       <c r="K939" s="3"/>
       <c r="L939" s="3"/>
     </row>
-    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -28991,7 +29024,7 @@
       <c r="K940" s="3"/>
       <c r="L940" s="3"/>
     </row>
-    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -29005,7 +29038,7 @@
       <c r="K941" s="3"/>
       <c r="L941" s="3"/>
     </row>
-    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -29019,7 +29052,7 @@
       <c r="K942" s="3"/>
       <c r="L942" s="3"/>
     </row>
-    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -29033,7 +29066,7 @@
       <c r="K943" s="3"/>
       <c r="L943" s="3"/>
     </row>
-    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -29047,7 +29080,7 @@
       <c r="K944" s="3"/>
       <c r="L944" s="3"/>
     </row>
-    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -29061,7 +29094,7 @@
       <c r="K945" s="3"/>
       <c r="L945" s="3"/>
     </row>
-    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -29075,7 +29108,7 @@
       <c r="K946" s="3"/>
       <c r="L946" s="3"/>
     </row>
-    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -29089,7 +29122,7 @@
       <c r="K947" s="3"/>
       <c r="L947" s="3"/>
     </row>
-    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -29103,7 +29136,7 @@
       <c r="K948" s="3"/>
       <c r="L948" s="3"/>
     </row>
-    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -29117,7 +29150,7 @@
       <c r="K949" s="3"/>
       <c r="L949" s="3"/>
     </row>
-    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -29131,7 +29164,7 @@
       <c r="K950" s="3"/>
       <c r="L950" s="3"/>
     </row>
-    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -29145,7 +29178,7 @@
       <c r="K951" s="3"/>
       <c r="L951" s="3"/>
     </row>
-    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -29159,7 +29192,7 @@
       <c r="K952" s="3"/>
       <c r="L952" s="3"/>
     </row>
-    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -29173,7 +29206,7 @@
       <c r="K953" s="3"/>
       <c r="L953" s="3"/>
     </row>
-    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -29187,7 +29220,7 @@
       <c r="K954" s="3"/>
       <c r="L954" s="3"/>
     </row>
-    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -29201,7 +29234,7 @@
       <c r="K955" s="3"/>
       <c r="L955" s="3"/>
     </row>
-    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -29215,7 +29248,7 @@
       <c r="K956" s="3"/>
       <c r="L956" s="3"/>
     </row>
-    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -29229,7 +29262,7 @@
       <c r="K957" s="3"/>
       <c r="L957" s="3"/>
     </row>
-    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -29243,7 +29276,7 @@
       <c r="K958" s="3"/>
       <c r="L958" s="3"/>
     </row>
-    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -29257,7 +29290,7 @@
       <c r="K959" s="3"/>
       <c r="L959" s="3"/>
     </row>
-    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -29271,7 +29304,7 @@
       <c r="K960" s="3"/>
       <c r="L960" s="3"/>
     </row>
-    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -29285,7 +29318,7 @@
       <c r="K961" s="3"/>
       <c r="L961" s="3"/>
     </row>
-    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -29299,7 +29332,7 @@
       <c r="K962" s="3"/>
       <c r="L962" s="3"/>
     </row>
-    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -29313,7 +29346,7 @@
       <c r="K963" s="3"/>
       <c r="L963" s="3"/>
     </row>
-    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -29327,7 +29360,7 @@
       <c r="K964" s="3"/>
       <c r="L964" s="3"/>
     </row>
-    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -29341,7 +29374,7 @@
       <c r="K965" s="3"/>
       <c r="L965" s="3"/>
     </row>
-    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -29355,7 +29388,7 @@
       <c r="K966" s="3"/>
       <c r="L966" s="3"/>
     </row>
-    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -29369,7 +29402,7 @@
       <c r="K967" s="3"/>
       <c r="L967" s="3"/>
     </row>
-    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -29383,7 +29416,7 @@
       <c r="K968" s="3"/>
       <c r="L968" s="3"/>
     </row>
-    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -29397,7 +29430,7 @@
       <c r="K969" s="3"/>
       <c r="L969" s="3"/>
     </row>
-    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -29411,7 +29444,7 @@
       <c r="K970" s="3"/>
       <c r="L970" s="3"/>
     </row>
-    <row r="971" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -29425,7 +29458,7 @@
       <c r="K971" s="3"/>
       <c r="L971" s="3"/>
     </row>
-    <row r="972" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -29439,7 +29472,7 @@
       <c r="K972" s="3"/>
       <c r="L972" s="3"/>
     </row>
-    <row r="973" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -29453,7 +29486,7 @@
       <c r="K973" s="3"/>
       <c r="L973" s="3"/>
     </row>
-    <row r="974" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -29467,7 +29500,7 @@
       <c r="K974" s="3"/>
       <c r="L974" s="3"/>
     </row>
-    <row r="975" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -29481,7 +29514,7 @@
       <c r="K975" s="3"/>
       <c r="L975" s="3"/>
     </row>
-    <row r="976" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -29495,7 +29528,7 @@
       <c r="K976" s="3"/>
       <c r="L976" s="3"/>
     </row>
-    <row r="977" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -29509,7 +29542,7 @@
       <c r="K977" s="3"/>
       <c r="L977" s="3"/>
     </row>
-    <row r="978" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -29523,7 +29556,7 @@
       <c r="K978" s="3"/>
       <c r="L978" s="3"/>
     </row>
-    <row r="979" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -29537,7 +29570,7 @@
       <c r="K979" s="3"/>
       <c r="L979" s="3"/>
     </row>
-    <row r="980" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -29551,7 +29584,7 @@
       <c r="K980" s="3"/>
       <c r="L980" s="3"/>
     </row>
-    <row r="981" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -29565,7 +29598,7 @@
       <c r="K981" s="3"/>
       <c r="L981" s="3"/>
     </row>
-    <row r="982" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -29579,7 +29612,7 @@
       <c r="K982" s="3"/>
       <c r="L982" s="3"/>
     </row>
-    <row r="983" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -29593,7 +29626,7 @@
       <c r="K983" s="3"/>
       <c r="L983" s="3"/>
     </row>
-    <row r="984" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -29607,7 +29640,7 @@
       <c r="K984" s="3"/>
       <c r="L984" s="3"/>
     </row>
-    <row r="985" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -29621,7 +29654,7 @@
       <c r="K985" s="3"/>
       <c r="L985" s="3"/>
     </row>
-    <row r="986" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -29635,7 +29668,7 @@
       <c r="K986" s="3"/>
       <c r="L986" s="3"/>
     </row>
-    <row r="987" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -29649,7 +29682,7 @@
       <c r="K987" s="3"/>
       <c r="L987" s="3"/>
     </row>
-    <row r="988" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -29663,7 +29696,7 @@
       <c r="K988" s="3"/>
       <c r="L988" s="3"/>
     </row>
-    <row r="989" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -29677,7 +29710,7 @@
       <c r="K989" s="3"/>
       <c r="L989" s="3"/>
     </row>
-    <row r="990" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -29691,7 +29724,7 @@
       <c r="K990" s="3"/>
       <c r="L990" s="3"/>
     </row>
-    <row r="991" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -29705,7 +29738,7 @@
       <c r="K991" s="3"/>
       <c r="L991" s="3"/>
     </row>
-    <row r="992" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -29719,7 +29752,7 @@
       <c r="K992" s="3"/>
       <c r="L992" s="3"/>
     </row>
-    <row r="993" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -29733,7 +29766,7 @@
       <c r="K993" s="3"/>
       <c r="L993" s="3"/>
     </row>
-    <row r="994" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -29747,7 +29780,7 @@
       <c r="K994" s="3"/>
       <c r="L994" s="3"/>
     </row>
-    <row r="995" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -29761,7 +29794,7 @@
       <c r="K995" s="3"/>
       <c r="L995" s="3"/>
     </row>
-    <row r="996" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -29775,7 +29808,7 @@
       <c r="K996" s="3"/>
       <c r="L996" s="3"/>
     </row>
-    <row r="997" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -29789,7 +29822,7 @@
       <c r="K997" s="3"/>
       <c r="L997" s="3"/>
     </row>
-    <row r="998" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -29803,7 +29836,7 @@
       <c r="K998" s="3"/>
       <c r="L998" s="3"/>
     </row>
-    <row r="999" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -29817,7 +29850,7 @@
       <c r="K999" s="3"/>
       <c r="L999" s="3"/>
     </row>
-    <row r="1000" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -29831,7 +29864,7 @@
       <c r="K1000" s="3"/>
       <c r="L1000" s="3"/>
     </row>
-    <row r="1001" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="3"/>
       <c r="B1001" s="3"/>
       <c r="C1001" s="3"/>
@@ -29855,19 +29888,19 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
@@ -29903,110 +29936,94 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>42262</v>
-      </c>
-      <c r="C2" s="3">
-        <v>200</v>
-      </c>
-      <c r="D2" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>42263</v>
-      </c>
-      <c r="C3" s="3">
-        <v>190</v>
-      </c>
-      <c r="D3" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
